--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF215DF-4B39-49F1-8045-EF8AFED7CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F480C-66CE-4C13-8232-BDA37195305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="317">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1012,21 +1012,6 @@
   </si>
   <si>
     <t>VM TEST LNX</t>
-  </si>
-  <si>
-    <t>VSL-POC-AIA-001</t>
-  </si>
-  <si>
-    <t>AIA POC LNX</t>
-  </si>
-  <si>
-    <t>vsl-poc-aia-001</t>
-  </si>
-  <si>
-    <t>192.168.25.106</t>
-  </si>
-  <si>
-    <t>192.168.25.1</t>
   </si>
   <si>
     <t>lu717</t>
@@ -1430,10 +1415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,14 +1536,14 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I31" si="0">"sub_"&amp;G2</f>
+        <f t="shared" ref="I2:I30" si="0">"sub_"&amp;G2</f>
         <v>sub_cluster651</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>214</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:K48" si="1">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K47" si="1">"stg_"&amp;G2</f>
         <v>stg_cluster651</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1595,46 +1580,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
         <v>311</v>
       </c>
-      <c r="C3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" t="s">
-        <v>313</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_cluster651</v>
+        <v>sub_cluster650</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>319</v>
+        <v>198</v>
       </c>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_cluster651</v>
+        <v>stg_cluster650</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2">
-        <v>16384</v>
+        <v>2048</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1643,82 +1628,36 @@
         <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S3">
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_cluster651</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>214</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_cluster651</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>294</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2">
-        <v>2048</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>100</v>
-      </c>
-      <c r="R4" t="s">
-        <v>318</v>
-      </c>
-      <c r="S4">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>309</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="N4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2220,7 +2159,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I31:I47" si="2">"sub_"&amp;G31</f>
         <v>sub_</v>
       </c>
       <c r="J31" s="3"/>
@@ -2239,7 +2178,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="str">
-        <f t="shared" ref="I32:I48" si="2">"sub_"&amp;G32</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="3"/>
@@ -2519,7 +2458,6 @@
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2538,44 +2476,26 @@
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G49)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L49:M49" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L48:M48" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M30:M48 G2:H48 L2:L48" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M29:M47 L2:L47 G2:H47" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F48" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F47" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J48" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J47" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2588,13 +2508,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A47</xm:sqref>
+          <xm:sqref>A2:A46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U48</xm:sqref>
+          <xm:sqref>U2:U47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2899,13 +2819,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
         <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E29" t="s">
         <v>249</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F480C-66CE-4C13-8232-BDA37195305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27470591-2BB2-422D-9579-E2F1EB494B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="313">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -996,22 +996,10 @@
     <t>FOLDER (ONLY FOR ESX)</t>
   </si>
   <si>
-    <t>LU718</t>
-  </si>
-  <si>
-    <t>lu718</t>
-  </si>
-  <si>
     <t>MEM(MB)</t>
   </si>
   <si>
-    <t>200.1.1.105</t>
-  </si>
-  <si>
     <t>200.1.1.240</t>
-  </si>
-  <si>
-    <t>VM TEST LNX</t>
   </si>
   <si>
     <t>lu717</t>
@@ -1415,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1474,7 @@
         <v>304</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -1514,131 +1502,85 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>306</v>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" t="s">
+        <v>307</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I30" si="0">"sub_"&amp;G2</f>
-        <v>sub_cluster651</v>
+        <f t="shared" ref="I2:I29" si="0">"sub_"&amp;G2</f>
+        <v>sub_cluster650</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:K47" si="1">"stg_"&amp;G2</f>
-        <v>stg_cluster651</v>
+        <f t="shared" ref="K2:K46" si="1">"stg_"&amp;G2</f>
+        <v>stg_cluster650</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
         <v>2048</v>
       </c>
-      <c r="O2" s="2">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>100</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="S2" s="2">
+      <c r="R2" t="s">
+        <v>309</v>
+      </c>
+      <c r="S2">
         <v>24</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>309</v>
+      <c r="T2" t="s">
+        <v>306</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_cluster650</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>198</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_cluster650</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>268</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2">
-        <v>2048</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>100</v>
-      </c>
-      <c r="R3" t="s">
-        <v>313</v>
-      </c>
-      <c r="S3">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>309</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="N3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2140,7 +2082,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I30:I46" si="2">"sub_"&amp;G30</f>
         <v>sub_</v>
       </c>
       <c r="J30" s="3"/>
@@ -2159,7 +2101,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="str">
-        <f t="shared" ref="I31:I47" si="2">"sub_"&amp;G31</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="3"/>
@@ -2439,7 +2381,6 @@
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2458,44 +2399,26 @@
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G48)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G47)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L48:M48" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L47:M47" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M29:M47 L2:L47 G2:H47" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M46 G2:H46 L2:L46" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F47" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F46" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J47" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J46" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2508,13 +2431,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A46</xm:sqref>
+          <xm:sqref>A2:A45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U47</xm:sqref>
+          <xm:sqref>U2:U46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2819,13 +2742,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
         <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E29" t="s">
         <v>249</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27470591-2BB2-422D-9579-E2F1EB494B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2FCFE-9023-4915-BE11-268718E90BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1017,7 +1017,7 @@
     <t>var.ahv_650_network["New_PROD 192.168.25.x"]</t>
   </si>
   <si>
-    <t>VM TEST LINUX -- MK --</t>
+    <t>VM TEST LINUX -- MK417 --</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2FCFE-9023-4915-BE11-268718E90BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1A9D42-7F00-47EA-8A1D-7ECD27D3BDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -51,14 +51,14 @@
     <definedName name="sub_cluster481">params!$E$25:$E$41</definedName>
     <definedName name="sub_cluster650">params!$B$25:$B$41</definedName>
     <definedName name="sub_cluster651">params!$D$25:$D$41</definedName>
-    <definedName name="sub_nut_dmz_01">params!$B$69:$B$171</definedName>
-    <definedName name="sub_nut_dmz_02">params!$C$69:$C$171</definedName>
-    <definedName name="sub_nut_dmz_03">params!$D$69:$D$171</definedName>
-    <definedName name="sub_nut_dmz_04">params!$E$69:$E$171</definedName>
-    <definedName name="sub_nut_dmz_05">params!$F$69:$F$171</definedName>
-    <definedName name="sub_nut_dmz_06">params!$G$69:$G$171</definedName>
-    <definedName name="sub_nut_dmz_07">params!$H$69:$H$171</definedName>
-    <definedName name="sub_nut_dmz_08">params!$I$69:$I$171</definedName>
+    <definedName name="sub_nut_dmz_01">params!$B$69:$B$172</definedName>
+    <definedName name="sub_nut_dmz_02">params!$C$69:$C$172</definedName>
+    <definedName name="sub_nut_dmz_03">params!$D$69:$D$172</definedName>
+    <definedName name="sub_nut_dmz_04">params!$E$69:$E$172</definedName>
+    <definedName name="sub_nut_dmz_05">params!$F$69:$F$172</definedName>
+    <definedName name="sub_nut_dmz_06">params!$G$69:$G$172</definedName>
+    <definedName name="sub_nut_dmz_07">params!$H$69:$H$172</definedName>
+    <definedName name="sub_nut_dmz_08">params!$I$69:$I$172</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="315">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -999,25 +999,31 @@
     <t>MEM(MB)</t>
   </si>
   <si>
-    <t>200.1.1.240</t>
-  </si>
-  <si>
-    <t>lu717</t>
-  </si>
-  <si>
-    <t>LU717</t>
-  </si>
-  <si>
-    <t>200.1.1.106</t>
-  </si>
-  <si>
     <t>var.ahv_651_network["New_PROD 192.168.25.x"]</t>
   </si>
   <si>
     <t>var.ahv_650_network["New_PROD 192.168.25.x"]</t>
   </si>
   <si>
-    <t>VM TEST LINUX -- MK417 --</t>
+    <t>PRO_DEPLOY_APP</t>
+  </si>
+  <si>
+    <t>vsl-pro-git-001</t>
+  </si>
+  <si>
+    <t>VSL-PRO-GIT-001</t>
+  </si>
+  <si>
+    <t>VSL-PRO-GIT-002</t>
+  </si>
+  <si>
+    <t>SERVEUR GITLAB RUNNER</t>
+  </si>
+  <si>
+    <t>172.23.45.1</t>
+  </si>
+  <si>
+    <t>172.23.45.254</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,49 +1506,49 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
         <v>312</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I29" si="0">"sub_"&amp;G2</f>
-        <v>sub_cluster650</v>
+        <f t="shared" ref="I2:I28" si="0">"sub_"&amp;G2</f>
+        <v>sub_nut-dmz-03</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:K46" si="1">"stg_"&amp;G2</f>
-        <v>stg_cluster650</v>
+        <f t="shared" ref="K2:K45" si="1">"stg_"&amp;G2</f>
+        <v>stg_nut-dmz-03</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>2048</v>
+        <v>16384</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1551,16 +1557,16 @@
         <v>100</v>
       </c>
       <c r="R2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="S2">
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -2063,7 +2069,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I29:I45" si="2">"sub_"&amp;G29</f>
         <v>sub_</v>
       </c>
       <c r="J29" s="3"/>
@@ -2082,7 +2088,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="str">
-        <f t="shared" ref="I30:I46" si="2">"sub_"&amp;G30</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="3"/>
@@ -2362,7 +2368,6 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2381,44 +2386,26 @@
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G47)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G46)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L47:M47" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L46:M46" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M46 G2:H46 L2:L46" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M27:M45 L2:L45 G2:H45" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F46" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F45" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J46" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J45" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2431,13 +2418,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A45</xm:sqref>
+          <xm:sqref>A2:A44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U46</xm:sqref>
+          <xm:sqref>U2:U45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2448,10 +2435,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40802AC-BF16-4F74-A64C-0EB8273AF630}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:O171"/>
+  <dimension ref="B2:O172"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,13 +2729,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C29" t="s">
         <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E29" t="s">
         <v>249</v>
@@ -6136,6 +6123,32 @@
       </c>
       <c r="I171" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>308</v>
+      </c>
+      <c r="C172" t="s">
+        <v>308</v>
+      </c>
+      <c r="D172" t="s">
+        <v>308</v>
+      </c>
+      <c r="E172" t="s">
+        <v>308</v>
+      </c>
+      <c r="F172" t="s">
+        <v>308</v>
+      </c>
+      <c r="G172" t="s">
+        <v>308</v>
+      </c>
+      <c r="H172" t="s">
+        <v>308</v>
+      </c>
+      <c r="I172" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1A9D42-7F00-47EA-8A1D-7ECD27D3BDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1935AD-245A-420D-93DD-D85BF924B6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -51,14 +51,14 @@
     <definedName name="sub_cluster481">params!$E$25:$E$41</definedName>
     <definedName name="sub_cluster650">params!$B$25:$B$41</definedName>
     <definedName name="sub_cluster651">params!$D$25:$D$41</definedName>
-    <definedName name="sub_nut_dmz_01">params!$B$69:$B$172</definedName>
-    <definedName name="sub_nut_dmz_02">params!$C$69:$C$172</definedName>
-    <definedName name="sub_nut_dmz_03">params!$D$69:$D$172</definedName>
-    <definedName name="sub_nut_dmz_04">params!$E$69:$E$172</definedName>
-    <definedName name="sub_nut_dmz_05">params!$F$69:$F$172</definedName>
-    <definedName name="sub_nut_dmz_06">params!$G$69:$G$172</definedName>
-    <definedName name="sub_nut_dmz_07">params!$H$69:$H$172</definedName>
-    <definedName name="sub_nut_dmz_08">params!$I$69:$I$172</definedName>
+    <definedName name="sub_nut_dmz_01">params!$B$69:$B$184</definedName>
+    <definedName name="sub_nut_dmz_02">params!$C$69:$C$184</definedName>
+    <definedName name="sub_nut_dmz_03">params!$D$69:$D$184</definedName>
+    <definedName name="sub_nut_dmz_04">params!$E$69:$E$184</definedName>
+    <definedName name="sub_nut_dmz_05">params!$F$69:$F$184</definedName>
+    <definedName name="sub_nut_dmz_06">params!$G$69:$G$184</definedName>
+    <definedName name="sub_nut_dmz_07">params!$H$69:$H$184</definedName>
+    <definedName name="sub_nut_dmz_08">params!$I$69:$I$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="326">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1008,29 +1008,65 @@
     <t>PRO_DEPLOY_APP</t>
   </si>
   <si>
-    <t>vsl-pro-git-001</t>
-  </si>
-  <si>
-    <t>VSL-PRO-GIT-001</t>
-  </si>
-  <si>
-    <t>VSL-PRO-GIT-002</t>
-  </si>
-  <si>
-    <t>SERVEUR GITLAB RUNNER</t>
-  </si>
-  <si>
-    <t>172.23.45.1</t>
-  </si>
-  <si>
-    <t>172.23.45.254</t>
+    <t>PPR_REVERSE_PROXY_EXT</t>
+  </si>
+  <si>
+    <t>PPR_REVERSE_PROXY_INT</t>
+  </si>
+  <si>
+    <t>PPR_APPLICATIONS</t>
+  </si>
+  <si>
+    <t>PPR_SERVICES</t>
+  </si>
+  <si>
+    <t>PPR_EPTS</t>
+  </si>
+  <si>
+    <t>PPR_TECH_COMPONENTS</t>
+  </si>
+  <si>
+    <t>PPR_SERVICES_LN</t>
+  </si>
+  <si>
+    <t>PPR_APPLICATIONS_LN</t>
+  </si>
+  <si>
+    <t>PPR_SERVICES_LV</t>
+  </si>
+  <si>
+    <t>PPR_INNOVAS</t>
+  </si>
+  <si>
+    <t>PPR_SERVICES_DKV</t>
+  </si>
+  <si>
+    <t>PPR_SERVICES_APROBAT</t>
+  </si>
+  <si>
+    <t>VSL-PPR-RPE-001</t>
+  </si>
+  <si>
+    <t>Reverse Proxy externe</t>
+  </si>
+  <si>
+    <t>vsl-ppr-rpe-001</t>
+  </si>
+  <si>
+    <t>172.24.74.1</t>
+  </si>
+  <si>
+    <t>172.24.74.254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,16 +1099,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1080,11 +1129,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1094,6 +1169,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,10 +1489,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,8 +1508,8 @@
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="54.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="32.140625" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1509,46 +1589,46 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" t="s">
-        <v>312</v>
+        <v>321</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="E2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I27" si="0">"sub_"&amp;G2</f>
+        <v>sub_nut-dmz-02</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I28" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-03</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:K45" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-03</v>
+        <f t="shared" ref="K2:K44" si="1">"stg_"&amp;G2</f>
+        <v>stg_nut-dmz-02</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1557,16 +1637,16 @@
         <v>100</v>
       </c>
       <c r="R2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="S2">
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -2050,7 +2130,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I28:I44" si="2">"sub_"&amp;G28</f>
         <v>sub_</v>
       </c>
       <c r="J28" s="3"/>
@@ -2069,7 +2149,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="str">
-        <f t="shared" ref="I29:I45" si="2">"sub_"&amp;G29</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="3"/>
@@ -2349,7 +2429,6 @@
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2368,44 +2447,26 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G46)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H45" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G45)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L46:M46" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L45:M45" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M27:M45 L2:L45 G2:H45" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M44 G2:H44 L2:L44" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F45" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J45" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J44" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2418,13 +2479,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A44</xm:sqref>
+          <xm:sqref>A2:A43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U45</xm:sqref>
+          <xm:sqref>U2:U44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2435,10 +2496,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40802AC-BF16-4F74-A64C-0EB8273AF630}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:O172"/>
+  <dimension ref="B2:O184"/>
   <sheetViews>
-    <sheetView topLeftCell="C69" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B95"/>
+    <sheetView topLeftCell="C141" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6151,6 +6212,318 @@
         <v>308</v>
       </c>
     </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B67:I67"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1935AD-245A-420D-93DD-D85BF924B6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A351F-DB88-499D-8F35-FD2D8573253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1646,7 @@
         <v>325</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A351F-DB88-499D-8F35-FD2D8573253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716199BC-0724-436A-966C-BF479E3B4B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1047,9 +1047,6 @@
     <t>VSL-PPR-RPE-001</t>
   </si>
   <si>
-    <t>Reverse Proxy externe</t>
-  </si>
-  <si>
     <t>vsl-ppr-rpe-001</t>
   </si>
   <si>
@@ -1057,6 +1054,9 @@
   </si>
   <si>
     <t>172.24.74.254</t>
+  </si>
+  <si>
+    <t>Reverse Proxy Externe</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,10 +1595,10 @@
         <v>321</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
         <v>322</v>
-      </c>
-      <c r="E2" t="s">
-        <v>323</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
@@ -1637,13 +1637,13 @@
         <v>100</v>
       </c>
       <c r="R2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S2">
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>19</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716199BC-0724-436A-966C-BF479E3B4B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883F57A9-DB98-444D-8EC9-F1681359091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="356">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1057,6 +1057,96 @@
   </si>
   <si>
     <t>Reverse Proxy Externe</t>
+  </si>
+  <si>
+    <t>Reverse Proxy Interne</t>
+  </si>
+  <si>
+    <t>vsl-ppr-rpi-001</t>
+  </si>
+  <si>
+    <t>VSL-PPR-RPI-001</t>
+  </si>
+  <si>
+    <t>172.24.41.1</t>
+  </si>
+  <si>
+    <t>172.24.41.254</t>
+  </si>
+  <si>
+    <t>/DMZ/Pre Prod</t>
+  </si>
+  <si>
+    <t>VSL-PPR-ALT-001</t>
+  </si>
+  <si>
+    <t>Applications  Linux</t>
+  </si>
+  <si>
+    <t>vsl-ppr-alt-001</t>
+  </si>
+  <si>
+    <t>172.24.5.1</t>
+  </si>
+  <si>
+    <t>172.24.5.254</t>
+  </si>
+  <si>
+    <t>VSL-PPR-APT-001</t>
+  </si>
+  <si>
+    <t>API Business Quarkus</t>
+  </si>
+  <si>
+    <t>vsl-ppr-apt-001</t>
+  </si>
+  <si>
+    <t>172.24.0.1</t>
+  </si>
+  <si>
+    <t>172.24.0.254</t>
+  </si>
+  <si>
+    <t>VSL-PPR-MST-001</t>
+  </si>
+  <si>
+    <t>MS Quarkus /WS springboot</t>
+  </si>
+  <si>
+    <t>vsl-ppr-mst-001</t>
+  </si>
+  <si>
+    <t>172.24.0.2</t>
+  </si>
+  <si>
+    <t>VSL-PPR-EPT-001</t>
+  </si>
+  <si>
+    <t>EPTS interne/externe</t>
+  </si>
+  <si>
+    <t>vsp-ppr-ept-001</t>
+  </si>
+  <si>
+    <t>172.24.23.1</t>
+  </si>
+  <si>
+    <t>172.24.23.254</t>
+  </si>
+  <si>
+    <t>VSL-PPR-KAF-001</t>
+  </si>
+  <si>
+    <t>KAFKA</t>
+  </si>
+  <si>
+    <t>vsl-ppr-kaf-001</t>
+  </si>
+  <si>
+    <t>172.24.11.1</t>
+  </si>
+  <si>
+    <t>172.24.11.254</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1155,11 +1245,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1173,7 +1291,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,8 +1616,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1719,7 @@
       <c r="C2" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>325</v>
       </c>
       <c r="E2" t="s">
@@ -1650,118 +1775,406 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="U3" s="2"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4096</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
+        <v>329</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>330</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>sub_nut-dmz-06</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="U4" s="2"/>
+        <v>stg_nut-dmz-06</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4096</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
+        <v>335</v>
+      </c>
+      <c r="S4">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>336</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J5" s="3"/>
+        <v>sub_nut-dmz-08</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="K5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="U5" s="2"/>
+        <v>stg_nut-dmz-08</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N5" s="2">
+        <v>20480</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>100</v>
+      </c>
+      <c r="R5" t="s">
+        <v>340</v>
+      </c>
+      <c r="S5">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>341</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J6" s="3"/>
+        <f t="shared" ref="I6" si="2">"sub_"&amp;G6</f>
+        <v>sub_nut-dmz-02</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="K6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="U6" s="2"/>
+        <f t="shared" ref="K6" si="3">"stg_"&amp;G6</f>
+        <v>stg_nut-dmz-02</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N6" s="2">
+        <v>20480</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>100</v>
+      </c>
+      <c r="R6" t="s">
+        <v>345</v>
+      </c>
+      <c r="S6">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>341</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="K7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="U7" s="2"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8192</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
+      </c>
+      <c r="R7" t="s">
+        <v>349</v>
+      </c>
+      <c r="S7">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>350</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J8" s="3"/>
+        <v>sub_nut-dmz-06</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="U8" s="2"/>
+        <v>stg_nut-dmz-06</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N8" s="2">
+        <v>8192</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>100</v>
+      </c>
+      <c r="R8" t="s">
+        <v>354</v>
+      </c>
+      <c r="S8">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
+        <v>355</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -2130,7 +2543,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="str">
-        <f t="shared" ref="I28:I44" si="2">"sub_"&amp;G28</f>
+        <f t="shared" ref="I28:I44" si="4">"sub_"&amp;G28</f>
         <v>sub_</v>
       </c>
       <c r="J28" s="3"/>
@@ -2149,7 +2562,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="3"/>
@@ -2168,7 +2581,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="3"/>
@@ -2187,7 +2600,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="3"/>
@@ -2206,7 +2619,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="3"/>
@@ -2225,7 +2638,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="3"/>
@@ -2244,7 +2657,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J34" s="3"/>
@@ -2263,7 +2676,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J35" s="3"/>
@@ -2282,7 +2695,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J36" s="3"/>
@@ -2301,7 +2714,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="3"/>
@@ -2320,7 +2733,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="3"/>
@@ -2339,7 +2752,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="3"/>
@@ -2358,7 +2771,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J40" s="3"/>
@@ -2377,7 +2790,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J41" s="3"/>
@@ -2396,7 +2809,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J42" s="3"/>
@@ -2415,7 +2828,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J43" s="3"/>
@@ -2433,7 +2846,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J44" s="3"/>
@@ -2460,7 +2873,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L45:M45" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M44 G2:H44 L2:L44" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M44 L2:L44 G2:H44" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883F57A9-DB98-444D-8EC9-F1681359091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88142682-DABD-465D-8E26-A55DD4F39444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="379">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1125,9 +1125,6 @@
     <t>EPTS interne/externe</t>
   </si>
   <si>
-    <t>vsp-ppr-ept-001</t>
-  </si>
-  <si>
     <t>172.24.23.1</t>
   </si>
   <si>
@@ -1147,6 +1144,78 @@
   </si>
   <si>
     <t>172.24.11.254</t>
+  </si>
+  <si>
+    <t>VSL-PPR-ATQ-001</t>
+  </si>
+  <si>
+    <t>VSL-PPR-ATQ-002</t>
+  </si>
+  <si>
+    <t>VSL-PPR-MSN-001</t>
+  </si>
+  <si>
+    <t>VSL-PPR-ABN-001</t>
+  </si>
+  <si>
+    <t>VSL-PPR-ALN-001</t>
+  </si>
+  <si>
+    <t>VSL-PPR-ABV-001</t>
+  </si>
+  <si>
+    <t>VSL-PPR-MSV-001</t>
+  </si>
+  <si>
+    <t>VSL-PPR-ABD-001</t>
+  </si>
+  <si>
+    <t>VSL-PPR-ABA-001</t>
+  </si>
+  <si>
+    <t>172.24.1.1</t>
+  </si>
+  <si>
+    <t>172.24.1.2</t>
+  </si>
+  <si>
+    <t>172.24.1.3</t>
+  </si>
+  <si>
+    <t>172.24.1.4</t>
+  </si>
+  <si>
+    <t>172.24.6.1</t>
+  </si>
+  <si>
+    <t>172.24.2.1</t>
+  </si>
+  <si>
+    <t>172.24.2.2</t>
+  </si>
+  <si>
+    <t>172.24.3.1</t>
+  </si>
+  <si>
+    <t>172.24.4.1</t>
+  </si>
+  <si>
+    <t>172.24.1.254</t>
+  </si>
+  <si>
+    <t>172.24.6.254</t>
+  </si>
+  <si>
+    <t>172.24.2.254</t>
+  </si>
+  <si>
+    <t>172.24.3.254</t>
+  </si>
+  <si>
+    <t>172.24.4.254</t>
+  </si>
+  <si>
+    <t>vsl-ppr-ept-001</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1273,11 +1342,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1299,6 +1396,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,7 +1717,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2156,7 @@
         <v>347</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
@@ -2097,13 +2197,13 @@
         <v>100</v>
       </c>
       <c r="R7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S7">
         <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>19</v>
@@ -2114,16 +2214,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>37</v>
@@ -2164,188 +2264,602 @@
         <v>100</v>
       </c>
       <c r="R8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S8">
         <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" t="str">
+        <f>LOWER(B9)</f>
+        <v>vsl-ppr-atq-001</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>sub_nut-dmz-08</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="K9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="U9" s="2"/>
+        <v>stg_nut-dmz-08</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N9" s="2">
+        <v>16384</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>100</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="S9">
+        <v>24</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:E17" si="4">LOWER(B10)</f>
+        <v>vsl-ppr-atq-002</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J10" s="3"/>
+        <v>sub_nut-dmz-02</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="K10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="U10" s="2"/>
+        <v>stg_nut-dmz-02</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N10" s="2">
+        <v>8192</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>100</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="S10">
+        <v>24</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="4"/>
+        <v>vsl-ppr-msn-001</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="K11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="U11" s="2"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8192</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>100</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="S11">
+        <v>24</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>vsl-ppr-abn-001</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>sub_nut-dmz-06</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="K12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="U12" s="2"/>
+        <v>stg_nut-dmz-06</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N12" s="2">
+        <v>16384</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>100</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="S12">
+        <v>24</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="4"/>
+        <v>vsl-ppr-aln-001</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>sub_nut-dmz-08</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="K13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="U13" s="2"/>
+        <v>stg_nut-dmz-08</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N13" s="2">
+        <v>16384</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>100</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="S13">
+        <v>24</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v>vsl-ppr-abv-001</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>sub_nut-dmz-02</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>317</v>
+      </c>
       <c r="K14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="U14" s="2"/>
+        <v>stg_nut-dmz-02</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4096</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>100</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="S14">
+        <v>24</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>vsl-ppr-msv-001</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>317</v>
+      </c>
       <c r="K15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="U15" s="2"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4096</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>100</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="S15">
+        <v>24</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>vsl-ppr-abd-001</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>sub_nut-dmz-06</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="K16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="U16" s="2"/>
+        <v>stg_nut-dmz-06</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N16" s="2">
+        <v>8192</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>100</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="S16">
+        <v>24</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="4"/>
+        <v>vsl-ppr-aba-001</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>sub_nut-dmz-08</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="K17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="U17" s="2"/>
+        <v>stg_nut-dmz-08</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N17" s="2">
+        <v>4096</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>100</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="S17">
+        <v>24</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2543,7 +3057,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="str">
-        <f t="shared" ref="I28:I44" si="4">"sub_"&amp;G28</f>
+        <f t="shared" ref="I28:I44" si="5">"sub_"&amp;G28</f>
         <v>sub_</v>
       </c>
       <c r="J28" s="3"/>
@@ -2562,7 +3076,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="3"/>
@@ -2581,7 +3095,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="3"/>
@@ -2600,7 +3114,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="3"/>
@@ -2619,7 +3133,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="3"/>
@@ -2638,7 +3152,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="3"/>
@@ -2657,7 +3171,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J34" s="3"/>
@@ -2676,7 +3190,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J35" s="3"/>
@@ -2695,7 +3209,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J36" s="3"/>
@@ -2714,7 +3228,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="3"/>
@@ -2733,7 +3247,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="3"/>
@@ -2752,7 +3266,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="3"/>
@@ -2771,7 +3285,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J40" s="3"/>
@@ -2790,7 +3304,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J41" s="3"/>
@@ -2809,7 +3323,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J42" s="3"/>
@@ -2828,7 +3342,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J43" s="3"/>
@@ -2846,7 +3360,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>sub_</v>
       </c>
       <c r="J44" s="3"/>
@@ -2873,7 +3387,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L45:M45" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M44 L2:L44 G2:H44" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M44 G2:H44 L2:L44" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88142682-DABD-465D-8E26-A55DD4F39444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE295CB8-3A4E-4FEC-81F6-950DF144DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="326">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -150,9 +150,6 @@
     <t>cluster481</t>
   </si>
   <si>
-    <t>RECETTE</t>
-  </si>
-  <si>
     <t>dmz_vms</t>
   </si>
   <si>
@@ -1044,178 +1041,22 @@
     <t>PPR_SERVICES_APROBAT</t>
   </si>
   <si>
-    <t>VSL-PPR-RPE-001</t>
-  </si>
-  <si>
-    <t>vsl-ppr-rpe-001</t>
-  </si>
-  <si>
-    <t>172.24.74.1</t>
-  </si>
-  <si>
-    <t>172.24.74.254</t>
-  </si>
-  <si>
-    <t>Reverse Proxy Externe</t>
-  </si>
-  <si>
-    <t>Reverse Proxy Interne</t>
-  </si>
-  <si>
-    <t>vsl-ppr-rpi-001</t>
-  </si>
-  <si>
-    <t>VSL-PPR-RPI-001</t>
-  </si>
-  <si>
-    <t>172.24.41.1</t>
-  </si>
-  <si>
-    <t>172.24.41.254</t>
-  </si>
-  <si>
-    <t>/DMZ/Pre Prod</t>
-  </si>
-  <si>
-    <t>VSL-PPR-ALT-001</t>
-  </si>
-  <si>
-    <t>Applications  Linux</t>
-  </si>
-  <si>
-    <t>vsl-ppr-alt-001</t>
-  </si>
-  <si>
-    <t>172.24.5.1</t>
-  </si>
-  <si>
-    <t>172.24.5.254</t>
-  </si>
-  <si>
-    <t>VSL-PPR-APT-001</t>
-  </si>
-  <si>
-    <t>API Business Quarkus</t>
-  </si>
-  <si>
-    <t>vsl-ppr-apt-001</t>
-  </si>
-  <si>
-    <t>172.24.0.1</t>
-  </si>
-  <si>
-    <t>172.24.0.254</t>
-  </si>
-  <si>
-    <t>VSL-PPR-MST-001</t>
-  </si>
-  <si>
-    <t>MS Quarkus /WS springboot</t>
-  </si>
-  <si>
-    <t>vsl-ppr-mst-001</t>
-  </si>
-  <si>
-    <t>172.24.0.2</t>
-  </si>
-  <si>
-    <t>VSL-PPR-EPT-001</t>
-  </si>
-  <si>
-    <t>EPTS interne/externe</t>
-  </si>
-  <si>
-    <t>172.24.23.1</t>
-  </si>
-  <si>
-    <t>172.24.23.254</t>
-  </si>
-  <si>
-    <t>VSL-PPR-KAF-001</t>
-  </si>
-  <si>
-    <t>KAFKA</t>
-  </si>
-  <si>
-    <t>vsl-ppr-kaf-001</t>
-  </si>
-  <si>
-    <t>172.24.11.1</t>
-  </si>
-  <si>
-    <t>172.24.11.254</t>
-  </si>
-  <si>
-    <t>VSL-PPR-ATQ-001</t>
-  </si>
-  <si>
-    <t>VSL-PPR-ATQ-002</t>
-  </si>
-  <si>
-    <t>VSL-PPR-MSN-001</t>
-  </si>
-  <si>
-    <t>VSL-PPR-ABN-001</t>
-  </si>
-  <si>
-    <t>VSL-PPR-ALN-001</t>
-  </si>
-  <si>
-    <t>VSL-PPR-ABV-001</t>
-  </si>
-  <si>
-    <t>VSL-PPR-MSV-001</t>
-  </si>
-  <si>
-    <t>VSL-PPR-ABD-001</t>
-  </si>
-  <si>
-    <t>VSL-PPR-ABA-001</t>
-  </si>
-  <si>
-    <t>172.24.1.1</t>
-  </si>
-  <si>
-    <t>172.24.1.2</t>
-  </si>
-  <si>
-    <t>172.24.1.3</t>
-  </si>
-  <si>
-    <t>172.24.1.4</t>
-  </si>
-  <si>
-    <t>172.24.6.1</t>
-  </si>
-  <si>
-    <t>172.24.2.1</t>
-  </si>
-  <si>
-    <t>172.24.2.2</t>
-  </si>
-  <si>
-    <t>172.24.3.1</t>
-  </si>
-  <si>
-    <t>172.24.4.1</t>
-  </si>
-  <si>
-    <t>172.24.1.254</t>
-  </si>
-  <si>
-    <t>172.24.6.254</t>
-  </si>
-  <si>
-    <t>172.24.2.254</t>
-  </si>
-  <si>
-    <t>172.24.3.254</t>
-  </si>
-  <si>
-    <t>172.24.4.254</t>
-  </si>
-  <si>
-    <t>vsl-ppr-ept-001</t>
+    <t>RECETTE_PREPROD</t>
+  </si>
+  <si>
+    <t>LU717</t>
+  </si>
+  <si>
+    <t>lu717</t>
+  </si>
+  <si>
+    <t>VM DE TEST</t>
+  </si>
+  <si>
+    <t>200.1.1.106</t>
+  </si>
+  <si>
+    <t>200.1.1.240</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1314,91 +1155,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1716,1667 +1493,984 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="54.7109375" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="32.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="6" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="6"/>
+    <col min="16" max="16" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="str">
+        <f t="shared" ref="I2:I27" si="0">"sub_"&amp;G2</f>
+        <v>sub_cluster650</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="10" t="str">
+        <f t="shared" ref="K2:K44" si="1">"stg_"&amp;G2</f>
+        <v>stg_cluster650</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9">
+        <v>2048</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>50</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="S2" s="6">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="T2" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I27" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-02</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:K44" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-02</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
-        <v>4096</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>100</v>
-      </c>
-      <c r="R2" t="s">
-        <v>323</v>
-      </c>
-      <c r="S2">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>324</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K3" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N3" s="2">
-        <v>4096</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>100</v>
-      </c>
-      <c r="R3" t="s">
-        <v>329</v>
-      </c>
-      <c r="S3">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>330</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-06</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-06</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N4" s="2">
-        <v>4096</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>100</v>
-      </c>
-      <c r="R4" t="s">
-        <v>335</v>
-      </c>
-      <c r="S4">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>336</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-08</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="K5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-08</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N5" s="2">
-        <v>20480</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>100</v>
-      </c>
-      <c r="R5" t="s">
-        <v>340</v>
-      </c>
-      <c r="S5">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>341</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6" si="2">"sub_"&amp;G6</f>
-        <v>sub_nut-dmz-02</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f t="shared" ref="K6" si="3">"stg_"&amp;G6</f>
-        <v>stg_nut-dmz-02</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N6" s="2">
-        <v>20480</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>100</v>
-      </c>
-      <c r="R6" t="s">
-        <v>345</v>
-      </c>
-      <c r="S6">
-        <v>24</v>
-      </c>
-      <c r="T6" t="s">
-        <v>341</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="K7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N7" s="2">
-        <v>8192</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>100</v>
-      </c>
-      <c r="R7" t="s">
-        <v>348</v>
-      </c>
-      <c r="S7">
-        <v>24</v>
-      </c>
-      <c r="T7" t="s">
-        <v>349</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-06</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="K8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-06</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N8" s="2">
-        <v>8192</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>100</v>
-      </c>
-      <c r="R8" t="s">
-        <v>353</v>
-      </c>
-      <c r="S8">
-        <v>24</v>
-      </c>
-      <c r="T8" t="s">
-        <v>354</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" t="str">
-        <f>LOWER(B9)</f>
-        <v>vsl-ppr-atq-001</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-08</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-08</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N9" s="2">
-        <v>16384</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>100</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="S9">
-        <v>24</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" ref="E10:E17" si="4">LOWER(B10)</f>
-        <v>vsl-ppr-atq-002</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-02</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-02</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N10" s="2">
-        <v>8192</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>100</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="S10">
-        <v>24</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="4"/>
-        <v>vsl-ppr-msn-001</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N11" s="2">
-        <v>8192</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>100</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="S11">
-        <v>24</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="4"/>
-        <v>vsl-ppr-abn-001</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-06</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-06</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N12" s="2">
-        <v>16384</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>100</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="S12">
-        <v>24</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="4"/>
-        <v>vsl-ppr-aln-001</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-08</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-08</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N13" s="2">
-        <v>16384</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>100</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="S13">
-        <v>24</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="4"/>
-        <v>vsl-ppr-abv-001</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-02</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="K14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-02</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N14" s="2">
-        <v>4096</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>100</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="S14">
-        <v>24</v>
-      </c>
-      <c r="T14" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="4"/>
-        <v>vsl-ppr-msv-001</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="K15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N15" s="2">
-        <v>4096</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>100</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="S15">
-        <v>24</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="4"/>
-        <v>vsl-ppr-abd-001</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-06</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-06</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N16" s="2">
-        <v>8192</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>100</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="S16">
-        <v>24</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="4"/>
-        <v>vsl-ppr-aba-001</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-08</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nut-dmz-08</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="N17" s="2">
-        <v>4096</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>100</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="S17">
-        <v>24</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="str">
+      <c r="A3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="str">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="str">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="str">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="str">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="str">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="str">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="str">
+        <f t="shared" ref="I6" si="2">"sub_"&amp;G6</f>
+        <v>sub_</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6" si="3">"stg_"&amp;G6</f>
+        <v>stg_</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="str">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="str">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="str">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="str">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="str">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="str">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="str">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="str">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3" t="str">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="str">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3" t="str">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="str">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3" t="str">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="str">
-        <f t="shared" ref="I28:I44" si="5">"sub_"&amp;G28</f>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="str">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3" t="str">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="str">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="str">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="str">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="str">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="str">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="str">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="str">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="str">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="str">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="U38" s="2"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="str">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="U39" s="2"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3" t="str">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="U40" s="2"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="str">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="str">
+        <f t="shared" ref="I28:I44" si="4">"sub_"&amp;G28</f>
         <v>sub_</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="str">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3" t="str">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="U43" s="2"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3" t="str">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="U33" s="9"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="U42" s="9"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>sub_</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="U44" s="9"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="H45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3425,8 +2519,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O184"/>
   <sheetViews>
-    <sheetView topLeftCell="C141" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,22 +2537,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="L2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -3468,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -3483,10 +2577,10 @@
         <v>20</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -3494,16 +2588,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -3515,24 +2609,24 @@
         <v>22</v>
       </c>
       <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -3541,3914 +2635,3914 @@
         <v>21</v>
       </c>
       <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
       <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
         <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
         <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
         <v>31</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>46</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>47</v>
       </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
       <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
         <v>70</v>
       </c>
-      <c r="G46" t="s">
-        <v>71</v>
-      </c>
       <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
         <v>78</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>80</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>81</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>82</v>
-      </c>
-      <c r="M46" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
         <v>59</v>
       </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
       <c r="H49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" t="s">
         <v>59</v>
       </c>
-      <c r="I49" t="s">
-        <v>60</v>
-      </c>
       <c r="J49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" t="s">
         <v>59</v>
       </c>
-      <c r="K49" t="s">
-        <v>60</v>
-      </c>
       <c r="L49" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49" t="s">
         <v>59</v>
-      </c>
-      <c r="M49" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" t="s">
         <v>59</v>
       </c>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
       <c r="I50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" t="s">
         <v>59</v>
       </c>
-      <c r="J50" t="s">
-        <v>60</v>
-      </c>
       <c r="K50" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" t="s">
         <v>59</v>
       </c>
-      <c r="L50" t="s">
-        <v>60</v>
-      </c>
       <c r="M50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s">
         <v>65</v>
       </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
       <c r="H55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" t="s">
         <v>65</v>
       </c>
-      <c r="I55" t="s">
-        <v>66</v>
-      </c>
       <c r="J55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" t="s">
         <v>65</v>
       </c>
-      <c r="K55" t="s">
-        <v>66</v>
-      </c>
       <c r="L55" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" t="s">
         <v>65</v>
-      </c>
-      <c r="M55" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="B67" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
         <v>185</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>186</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>187</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>189</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>190</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>191</v>
-      </c>
-      <c r="I68" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
+        <v>307</v>
+      </c>
+      <c r="C172" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" t="s">
+        <v>307</v>
+      </c>
+      <c r="E172" t="s">
+        <v>307</v>
+      </c>
+      <c r="F172" t="s">
+        <v>307</v>
+      </c>
+      <c r="G172" t="s">
+        <v>307</v>
+      </c>
+      <c r="H172" t="s">
+        <v>307</v>
+      </c>
+      <c r="I172" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E173" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F173" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G173" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H173" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I173" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C174" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D174" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E174" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F174" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="G174" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H173" s="5" t="s">
+      <c r="H174" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I173" s="5" t="s">
+      <c r="I174" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="6" t="s">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D175" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E175" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="F175" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G174" s="6" t="s">
+      <c r="G175" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H174" s="6" t="s">
+      <c r="H175" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I174" s="6" t="s">
+      <c r="I175" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="5" t="s">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C176" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D176" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E176" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F176" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G176" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="H176" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I175" s="5" t="s">
+      <c r="I176" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="6" t="s">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C177" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D177" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E177" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="F177" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="G176" s="6" t="s">
+      <c r="G177" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H176" s="6" t="s">
+      <c r="H177" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I176" s="6" t="s">
+      <c r="I177" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="6" t="s">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C178" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D178" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E178" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="F178" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G177" s="6" t="s">
+      <c r="G178" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H177" s="6" t="s">
+      <c r="H178" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I177" s="6" t="s">
+      <c r="I178" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="5" t="s">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="G179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="H179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I178" s="5" t="s">
+      <c r="I179" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="5" t="s">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C180" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D180" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E180" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F180" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G180" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="H179" s="5" t="s">
+      <c r="H180" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I179" s="5" t="s">
+      <c r="I180" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="6" t="s">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C181" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="D181" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="E181" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F180" s="6" t="s">
+      <c r="F181" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G180" s="6" t="s">
+      <c r="G181" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H180" s="6" t="s">
+      <c r="H181" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I180" s="6" t="s">
+      <c r="I181" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="6" t="s">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C182" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D182" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="E182" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="F182" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G181" s="6" t="s">
+      <c r="G182" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H181" s="6" t="s">
+      <c r="H182" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I181" s="6" t="s">
+      <c r="I182" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C183" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D183" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E183" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F183" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="G183" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H182" s="7" t="s">
+      <c r="H183" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I182" s="7" t="s">
+      <c r="I183" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="6" t="s">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C184" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D184" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E184" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F184" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G183" s="6" t="s">
+      <c r="G184" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H183" s="6" t="s">
+      <c r="H184" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="I183" s="6" t="s">
+      <c r="I184" s="5" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I184" s="8" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE295CB8-3A4E-4FEC-81F6-950DF144DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1313D724-4053-495B-932A-FC756E1FF6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="329">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1057,6 +1057,15 @@
   </si>
   <si>
     <t>200.1.1.240</t>
+  </si>
+  <si>
+    <t>LU718</t>
+  </si>
+  <si>
+    <t>lu718</t>
+  </si>
+  <si>
+    <t>200.1.1.105</t>
   </si>
 </sst>
 </file>
@@ -1493,8 +1502,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,24 +1663,69 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="10"/>
+        <v>sub_cluster651</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="9"/>
+        <v>stg_cluster651</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="N3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1313D724-4053-495B-932A-FC756E1FF6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90B05FD-6C78-40E6-8569-F0AA0CBFE7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="334">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1066,6 +1066,21 @@
   </si>
   <si>
     <t>200.1.1.105</t>
+  </si>
+  <si>
+    <t>lu686</t>
+  </si>
+  <si>
+    <t>LU686</t>
+  </si>
+  <si>
+    <t>/DMZ/DEV</t>
+  </si>
+  <si>
+    <t>172.22.160.2</t>
+  </si>
+  <si>
+    <t>172.22.160.1</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1518,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,24 +1743,71 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="10"/>
+        <v>sub_nut-dmz-05</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="K4" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="U4" s="9"/>
+        <v>stg_nut-dmz-05</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1500</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>20</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90B05FD-6C78-40E6-8569-F0AA0CBFE7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C8B34-17B3-451B-99E0-404BA26D80F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C8B34-17B3-451B-99E0-404BA26D80F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DE146-4B9C-464C-831B-FD69C75987AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="335">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1081,6 +1081,9 @@
   </si>
   <si>
     <t>172.22.160.1</t>
+  </si>
+  <si>
+    <t>VM linux DE TEST</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1521,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,7 +1756,7 @@
         <v>330</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>329</v>
@@ -1762,21 +1765,21 @@
         <v>35</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-05</v>
+        <v>sub_nut-dmz-07</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>144</v>
       </c>
       <c r="K4" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-05</v>
+        <v>stg_nut-dmz-07</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>61</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DE146-4B9C-464C-831B-FD69C75987AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC73865-6D1E-4882-9071-6C2C0B2A6F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="39810" yWindow="5160" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="326">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1044,46 +1044,19 @@
     <t>RECETTE_PREPROD</t>
   </si>
   <si>
-    <t>LU717</t>
-  </si>
-  <si>
-    <t>lu717</t>
-  </si>
-  <si>
-    <t>VM DE TEST</t>
-  </si>
-  <si>
-    <t>200.1.1.106</t>
-  </si>
-  <si>
-    <t>200.1.1.240</t>
-  </si>
-  <si>
-    <t>LU718</t>
-  </si>
-  <si>
-    <t>lu718</t>
-  </si>
-  <si>
-    <t>200.1.1.105</t>
-  </si>
-  <si>
-    <t>lu686</t>
-  </si>
-  <si>
-    <t>LU686</t>
-  </si>
-  <si>
-    <t>/DMZ/DEV</t>
-  </si>
-  <si>
-    <t>172.22.160.2</t>
-  </si>
-  <si>
-    <t>172.22.160.1</t>
-  </si>
-  <si>
-    <t>VM linux DE TEST</t>
+    <t>VSL-POC-DTH-001</t>
+  </si>
+  <si>
+    <t>DATATHINGS POC</t>
+  </si>
+  <si>
+    <t>vsl-poc-dth-001</t>
+  </si>
+  <si>
+    <t>192.168.25.119</t>
+  </si>
+  <si>
+    <t>192.168.25.1</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1066,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,6 +1105,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF353539"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1186,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1203,6 +1182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1518,10 +1498,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,57 +1595,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>321</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I2" s="9" t="str">
-        <f t="shared" ref="I2:I27" si="0">"sub_"&amp;G2</f>
-        <v>sub_cluster650</v>
+        <f t="shared" ref="I2:I24" si="0">"sub_"&amp;G2</f>
+        <v>sub_cluster651</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K44" si="1">"stg_"&amp;G2</f>
-        <v>stg_cluster650</v>
+        <f t="shared" ref="K2:K41" si="1">"stg_"&amp;G2</f>
+        <v>stg_cluster651</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9">
-        <v>2048</v>
+        <v>32768</v>
       </c>
       <c r="O2" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" s="6">
         <v>1</v>
       </c>
       <c r="Q2" s="9">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>324</v>
@@ -1681,140 +1661,48 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_cluster651</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>213</v>
-      </c>
+        <f t="shared" ref="I3" si="2">"sub_"&amp;G3</f>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_cluster651</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>301</v>
-      </c>
+        <f t="shared" ref="K3" si="3">"stg_"&amp;G3</f>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="9">
-        <v>1500</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>100</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="N3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-07</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>144</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-07</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1500</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>20</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="S4" s="6">
-        <v>24</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>19</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="D5" s="7"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1835,17 +1723,16 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="D6" s="7"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="str">
-        <f t="shared" ref="I6" si="2">"sub_"&amp;G6</f>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="str">
-        <f t="shared" ref="K6" si="3">"stg_"&amp;G6</f>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L6" s="9"/>
@@ -2031,7 +1918,6 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="Q15" s="9"/>
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2051,7 +1937,6 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="Q16" s="9"/>
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2071,7 +1956,6 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="Q17" s="9"/>
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2213,7 +2097,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I25:I41" si="4">"sub_"&amp;G25</f>
         <v>sub_</v>
       </c>
       <c r="J25" s="10"/>
@@ -2232,7 +2116,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="10"/>
@@ -2251,7 +2135,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="10"/>
@@ -2270,7 +2154,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="str">
-        <f t="shared" ref="I28:I44" si="4">"sub_"&amp;G28</f>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J28" s="10"/>
@@ -2512,7 +2396,6 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2531,82 +2414,26 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="U42" s="9"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H45" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G45)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G42)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L45:M45" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L42:M42" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M44 G2:H44 L2:L44" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M41 L2:L41 G2:H41" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J44" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J41" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2619,13 +2446,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A43</xm:sqref>
+          <xm:sqref>A2:A40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U44</xm:sqref>
+          <xm:sqref>U2:U41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC73865-6D1E-4882-9071-6C2C0B2A6F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8953613-2DC3-499D-8468-19CC84173E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39810" yWindow="5160" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -51,14 +51,14 @@
     <definedName name="sub_cluster481">params!$E$25:$E$41</definedName>
     <definedName name="sub_cluster650">params!$B$25:$B$41</definedName>
     <definedName name="sub_cluster651">params!$D$25:$D$41</definedName>
-    <definedName name="sub_nut_dmz_01">params!$B$69:$B$184</definedName>
-    <definedName name="sub_nut_dmz_02">params!$C$69:$C$184</definedName>
-    <definedName name="sub_nut_dmz_03">params!$D$69:$D$184</definedName>
-    <definedName name="sub_nut_dmz_04">params!$E$69:$E$184</definedName>
-    <definedName name="sub_nut_dmz_05">params!$F$69:$F$184</definedName>
-    <definedName name="sub_nut_dmz_06">params!$G$69:$G$184</definedName>
-    <definedName name="sub_nut_dmz_07">params!$H$69:$H$184</definedName>
-    <definedName name="sub_nut_dmz_08">params!$I$69:$I$184</definedName>
+    <definedName name="sub_nut_dmz_01">params!$B$69:$B$186</definedName>
+    <definedName name="sub_nut_dmz_02">params!$C$69:$C$186</definedName>
+    <definedName name="sub_nut_dmz_03">params!$D$69:$D$186</definedName>
+    <definedName name="sub_nut_dmz_04">params!$E$69:$E$186</definedName>
+    <definedName name="sub_nut_dmz_05">params!$F$69:$F$186</definedName>
+    <definedName name="sub_nut_dmz_06">params!$G$69:$G$186</definedName>
+    <definedName name="sub_nut_dmz_07">params!$H$69:$H$186</definedName>
+    <definedName name="sub_nut_dmz_08">params!$I$69:$I$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="348">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1057,6 +1057,72 @@
   </si>
   <si>
     <t>192.168.25.1</t>
+  </si>
+  <si>
+    <t>PRO_AXWAY</t>
+  </si>
+  <si>
+    <t>TST_AXWAY</t>
+  </si>
+  <si>
+    <t>VSL-PRO-AXW-001</t>
+  </si>
+  <si>
+    <t>AXWAY PRO</t>
+  </si>
+  <si>
+    <t>vsl-pro-axw-001</t>
+  </si>
+  <si>
+    <t>172.23.83.1</t>
+  </si>
+  <si>
+    <t>172.23.83.254</t>
+  </si>
+  <si>
+    <t>VSL-TST-AXW-001</t>
+  </si>
+  <si>
+    <t>VSL-TST-AXW-002</t>
+  </si>
+  <si>
+    <t>AXWAY TEST</t>
+  </si>
+  <si>
+    <t>vsl-tst-axw-001</t>
+  </si>
+  <si>
+    <t>172.26.83.1</t>
+  </si>
+  <si>
+    <t>172.26.83.254</t>
+  </si>
+  <si>
+    <t>AXWAY LAN TEST</t>
+  </si>
+  <si>
+    <t>vsl-tst-axw-002</t>
+  </si>
+  <si>
+    <t>192.168.42.158</t>
+  </si>
+  <si>
+    <t>192.168.42.1</t>
+  </si>
+  <si>
+    <t>VSL-PRO-AXW-002</t>
+  </si>
+  <si>
+    <t>AXWAY LAN PROD</t>
+  </si>
+  <si>
+    <t>vsl-pro-axw-002</t>
+  </si>
+  <si>
+    <t>192.168.42.157</t>
+  </si>
+  <si>
+    <t>/DMZ</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1566,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,85 +1727,268 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="D3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="I3" s="9" t="str">
         <f t="shared" ref="I3" si="2">"sub_"&amp;G3</f>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="10"/>
+        <v>sub_nut-dmz-01</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="K3" s="10" t="str">
         <f t="shared" ref="K3" si="3">"stg_"&amp;G3</f>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="U3" s="9"/>
+        <v>stg_nut-dmz-01</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="N3" s="9">
+        <v>4096</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="10"/>
+        <v>sub_nut-dmz-02</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>327</v>
+      </c>
       <c r="K4" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="U4" s="9"/>
+        <v>stg_nut-dmz-02</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="N4" s="9">
+        <v>4096</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>100</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J5" s="10"/>
+        <v>sub_cluster651</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="K5" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L5" s="9"/>
+        <v>stg_cluster651</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="N5" s="9">
+        <v>4096</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>100</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="S5" s="6">
+        <v>24</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J6" s="10"/>
+        <v>sub_cluster650</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="K6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L6" s="9"/>
+        <v>stg_cluster650</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>267</v>
+      </c>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="N6" s="9">
+        <v>4096</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>100</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="S6" s="6">
+        <v>24</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -2463,10 +2712,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40802AC-BF16-4F74-A64C-0EB8273AF630}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:O184"/>
+  <dimension ref="B2:O186"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6491,6 +6740,58 @@
         <v>319</v>
       </c>
     </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B67:I67"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33395170-94C3-4B26-B7AF-5679CE7B0750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8031D7-FB1F-4608-B208-3E052A5ADCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="334">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1056,33 +1056,31 @@
     <t>PRO_SAP_ROUTER</t>
   </si>
   <si>
-    <t>SAP ROUTER</t>
-  </si>
-  <si>
-    <r>
-      <t>VSL-PRO-SRO-001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF353539"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>vsl-pro-sro-001</t>
-  </si>
-  <si>
-    <t>172.23.76.1</t>
-  </si>
-  <si>
-    <t>172.23.76.254</t>
-  </si>
-  <si>
     <t>PRO_SAP_ROUTER_EXT</t>
+  </si>
+  <si>
+    <t>VSL-TST-OES-001</t>
+  </si>
+  <si>
+    <t>VSL-TST-OES-002</t>
+  </si>
+  <si>
+    <t>ORACLE EXACC SCRIPT DMZ</t>
+  </si>
+  <si>
+    <t>ORACLE EXACC SCRIPT LAN</t>
+  </si>
+  <si>
+    <t>172.22.143.100</t>
+  </si>
+  <si>
+    <t>172.22.143.1</t>
+  </si>
+  <si>
+    <t>192.168.26.217</t>
+  </si>
+  <si>
+    <t>192.168.26.1</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1090,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,24 +1131,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF353539"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF353539"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1205,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1219,11 +1204,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,10 +1523,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,9 +1539,9 @@
     <col min="6" max="6" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="6" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="41.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="6" bestFit="1" customWidth="1"/>
@@ -1636,44 +1620,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>326</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="9" t="str">
-        <f t="shared" ref="I2:I24" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-05</v>
+        <f t="shared" ref="I2:I5" si="0">"sub_"&amp;G2</f>
+        <v>sub_nut-dmz-04</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K41" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-05</v>
+        <f t="shared" ref="K2:K40" si="1">"stg_"&amp;G2</f>
+        <v>stg_nut-dmz-04</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>323</v>
@@ -1687,45 +1671,97 @@
       <c r="P2" s="6">
         <v>1</v>
       </c>
-      <c r="Q2" s="9">
-        <v>20</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>328</v>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>329</v>
+      <c r="T2" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="D3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_cluster651</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_cluster651</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="N3" s="9">
+        <v>2048</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
       <c r="Q3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="R3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1737,9 +1773,15 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1751,9 +1793,15 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="str">
+        <f>"sub_"&amp;G6</f>
+        <v>sub_</v>
+      </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1766,7 +1814,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I7:I23" si="2">"sub_"&amp;G7</f>
         <v>sub_</v>
       </c>
       <c r="J7" s="10"/>
@@ -1786,7 +1834,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J8" s="10"/>
@@ -1806,7 +1854,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="10"/>
@@ -1826,7 +1874,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="10"/>
@@ -1846,7 +1894,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="10"/>
@@ -1866,7 +1914,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="10"/>
@@ -1886,7 +1934,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="10"/>
@@ -1906,7 +1954,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="10"/>
@@ -1917,7 +1965,6 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="Q14" s="9"/>
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1926,7 +1973,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="10"/>
@@ -1945,7 +1992,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="10"/>
@@ -1964,7 +2011,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="10"/>
@@ -1983,7 +2030,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="10"/>
@@ -2002,7 +2049,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="10"/>
@@ -2021,7 +2068,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="10"/>
@@ -2040,7 +2087,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="10"/>
@@ -2059,7 +2106,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="10"/>
@@ -2078,7 +2125,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J23" s="10"/>
@@ -2097,7 +2144,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I24:I40" si="3">"sub_"&amp;G24</f>
         <v>sub_</v>
       </c>
       <c r="J24" s="10"/>
@@ -2116,7 +2163,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="str">
-        <f t="shared" ref="I25:I41" si="2">"sub_"&amp;G25</f>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J25" s="10"/>
@@ -2135,7 +2182,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="10"/>
@@ -2154,7 +2201,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="10"/>
@@ -2173,7 +2220,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J28" s="10"/>
@@ -2192,7 +2239,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="10"/>
@@ -2211,7 +2258,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="10"/>
@@ -2230,7 +2277,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="10"/>
@@ -2249,7 +2296,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="10"/>
@@ -2268,7 +2315,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="10"/>
@@ -2287,7 +2334,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J34" s="10"/>
@@ -2306,7 +2353,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J35" s="10"/>
@@ -2325,7 +2372,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J36" s="10"/>
@@ -2344,7 +2391,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="10"/>
@@ -2363,7 +2410,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="10"/>
@@ -2382,7 +2429,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="10"/>
@@ -2396,12 +2443,11 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>sub_</v>
       </c>
       <c r="J40" s="10"/>
@@ -2415,44 +2461,26 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="U41" s="9"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G42)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G41)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L42:M42" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L41:M41" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M41 L2:L41 G2:H41" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M22:M40 G2:H40 L2:L40" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F40" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J41" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J40" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2465,13 +2493,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A40</xm:sqref>
+          <xm:sqref>A2:A39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U41</xm:sqref>
+          <xm:sqref>U2:U40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2484,8 +2512,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="C147" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+    <sheetView topLeftCell="C178" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,20 +2532,20 @@
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2697,12 +2725,12 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2957,20 +2985,20 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -3457,16 +3485,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -6563,29 +6591,29 @@
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C187" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D187" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E187" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F187" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="G187" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H187" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="I187" s="12" t="s">
-        <v>330</v>
+      <c r="C187" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H187" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I187" s="11" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8031D7-FB1F-4608-B208-3E052A5ADCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3514BF-F950-44CE-BD98-E35D2D23EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="336">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1081,6 +1081,12 @@
   </si>
   <si>
     <t>192.168.26.1</t>
+  </si>
+  <si>
+    <t>vsl-test-oes-002</t>
+  </si>
+  <si>
+    <t>vsl-test-oes-001</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1531,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1640,7 @@
         <v>328</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>36</v>
@@ -1671,7 +1677,9 @@
       <c r="P2" s="6">
         <v>1</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="9">
+        <v>10</v>
+      </c>
       <c r="R2" s="6" t="s">
         <v>330</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>329</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>20</v>
@@ -1734,7 +1742,9 @@
       <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="9">
+        <v>10</v>
+      </c>
       <c r="R3" s="6" t="s">
         <v>332</v>
       </c>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3514BF-F950-44CE-BD98-E35D2D23EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83757A30-12F4-4981-830D-02428C49114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1083,10 +1083,10 @@
     <t>192.168.26.1</t>
   </si>
   <si>
-    <t>vsl-test-oes-002</t>
-  </si>
-  <si>
-    <t>vsl-test-oes-001</t>
+    <t>vsl-tst-oes-001</t>
+  </si>
+  <si>
+    <t>vsl-tst-oes-002</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1640,7 @@
         <v>328</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>36</v>
@@ -1707,7 +1707,7 @@
         <v>329</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>20</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83757A30-12F4-4981-830D-02428C49114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D4002-788B-4008-9D4B-F44602C8C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="330">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1050,40 +1050,22 @@
     <t>TST_AXWAY</t>
   </si>
   <si>
-    <t>/DMZ</t>
-  </si>
-  <si>
     <t>PRO_SAP_ROUTER</t>
   </si>
   <si>
     <t>PRO_SAP_ROUTER_EXT</t>
   </si>
   <si>
-    <t>VSL-TST-OES-001</t>
-  </si>
-  <si>
     <t>VSL-TST-OES-002</t>
   </si>
   <si>
-    <t>ORACLE EXACC SCRIPT DMZ</t>
-  </si>
-  <si>
     <t>ORACLE EXACC SCRIPT LAN</t>
   </si>
   <si>
-    <t>172.22.143.100</t>
-  </si>
-  <si>
-    <t>172.22.143.1</t>
-  </si>
-  <si>
     <t>192.168.26.217</t>
   </si>
   <si>
     <t>192.168.26.1</t>
-  </si>
-  <si>
-    <t>vsl-tst-oes-001</t>
   </si>
   <si>
     <t>vsl-tst-oes-002</t>
@@ -1529,10 +1511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,46 +1610,44 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I2" s="9" t="str">
-        <f t="shared" ref="I2:I5" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-04</v>
+        <f>"sub_"&amp;G2</f>
+        <v>sub_cluster651</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K40" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-04</v>
+        <f>"stg_"&amp;G2</f>
+        <v>stg_cluster651</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>323</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M2" s="9"/>
       <c r="N2" s="9">
         <v>2048</v>
       </c>
@@ -1681,82 +1661,37 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_cluster651</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>218</v>
-      </c>
+        <f>"sub_"&amp;G3</f>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_cluster651</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>293</v>
-      </c>
+        <f>"stg_"&amp;G3</f>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="9">
-        <v>2048</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>10</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="N3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1764,12 +1699,12 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>"sub_"&amp;G4</f>
         <v>sub_</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G4</f>
         <v>stg_</v>
       </c>
       <c r="L4" s="9"/>
@@ -1784,12 +1719,12 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>"sub_"&amp;G5</f>
         <v>sub_</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G5</f>
         <v>stg_</v>
       </c>
       <c r="L5" s="9"/>
@@ -1804,12 +1739,12 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="str">
-        <f>"sub_"&amp;G6</f>
+        <f t="shared" ref="I6:I22" si="0">"sub_"&amp;G6</f>
         <v>sub_</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G6</f>
         <v>stg_</v>
       </c>
       <c r="L6" s="9"/>
@@ -1824,12 +1759,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="str">
-        <f t="shared" ref="I7:I23" si="2">"sub_"&amp;G7</f>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G7</f>
         <v>stg_</v>
       </c>
       <c r="L7" s="9"/>
@@ -1844,12 +1779,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G8</f>
         <v>stg_</v>
       </c>
       <c r="L8" s="9"/>
@@ -1864,12 +1799,12 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G9</f>
         <v>stg_</v>
       </c>
       <c r="L9" s="9"/>
@@ -1884,12 +1819,12 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G10</f>
         <v>stg_</v>
       </c>
       <c r="L10" s="9"/>
@@ -1904,12 +1839,12 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G11</f>
         <v>stg_</v>
       </c>
       <c r="L11" s="9"/>
@@ -1924,12 +1859,12 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G12</f>
         <v>stg_</v>
       </c>
       <c r="L12" s="9"/>
@@ -1944,18 +1879,17 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G13</f>
         <v>stg_</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="Q13" s="9"/>
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1964,12 +1898,12 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G14</f>
         <v>stg_</v>
       </c>
       <c r="L14" s="9"/>
@@ -1983,12 +1917,12 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G15</f>
         <v>stg_</v>
       </c>
       <c r="L15" s="9"/>
@@ -2002,12 +1936,12 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G16</f>
         <v>stg_</v>
       </c>
       <c r="L16" s="9"/>
@@ -2021,12 +1955,12 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G17</f>
         <v>stg_</v>
       </c>
       <c r="L17" s="9"/>
@@ -2040,12 +1974,12 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G18</f>
         <v>stg_</v>
       </c>
       <c r="L18" s="9"/>
@@ -2059,12 +1993,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G19</f>
         <v>stg_</v>
       </c>
       <c r="L19" s="9"/>
@@ -2078,12 +2012,12 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G20</f>
         <v>stg_</v>
       </c>
       <c r="L20" s="9"/>
@@ -2097,12 +2031,12 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G21</f>
         <v>stg_</v>
       </c>
       <c r="L21" s="9"/>
@@ -2116,12 +2050,12 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G22</f>
         <v>stg_</v>
       </c>
       <c r="L22" s="9"/>
@@ -2135,12 +2069,12 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I23:I39" si="1">"sub_"&amp;G23</f>
         <v>sub_</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G23</f>
         <v>stg_</v>
       </c>
       <c r="L23" s="9"/>
@@ -2154,12 +2088,12 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="str">
-        <f t="shared" ref="I24:I40" si="3">"sub_"&amp;G24</f>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G24</f>
         <v>stg_</v>
       </c>
       <c r="L24" s="9"/>
@@ -2173,12 +2107,12 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G25</f>
         <v>stg_</v>
       </c>
       <c r="L25" s="9"/>
@@ -2192,12 +2126,12 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G26</f>
         <v>stg_</v>
       </c>
       <c r="L26" s="9"/>
@@ -2211,12 +2145,12 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G27</f>
         <v>stg_</v>
       </c>
       <c r="L27" s="9"/>
@@ -2230,12 +2164,12 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G28</f>
         <v>stg_</v>
       </c>
       <c r="L28" s="9"/>
@@ -2249,12 +2183,12 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G29</f>
         <v>stg_</v>
       </c>
       <c r="L29" s="9"/>
@@ -2268,12 +2202,12 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G30</f>
         <v>stg_</v>
       </c>
       <c r="L30" s="9"/>
@@ -2287,12 +2221,12 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G31</f>
         <v>stg_</v>
       </c>
       <c r="L31" s="9"/>
@@ -2306,12 +2240,12 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G32</f>
         <v>stg_</v>
       </c>
       <c r="L32" s="9"/>
@@ -2325,12 +2259,12 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G33</f>
         <v>stg_</v>
       </c>
       <c r="L33" s="9"/>
@@ -2344,12 +2278,12 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G34</f>
         <v>stg_</v>
       </c>
       <c r="L34" s="9"/>
@@ -2363,12 +2297,12 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G35</f>
         <v>stg_</v>
       </c>
       <c r="L35" s="9"/>
@@ -2382,12 +2316,12 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G36</f>
         <v>stg_</v>
       </c>
       <c r="L36" s="9"/>
@@ -2401,12 +2335,12 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G37</f>
         <v>stg_</v>
       </c>
       <c r="L37" s="9"/>
@@ -2420,12 +2354,12 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G38</f>
         <v>stg_</v>
       </c>
       <c r="L38" s="9"/>
@@ -2434,17 +2368,16 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>"stg_"&amp;G39</f>
         <v>stg_</v>
       </c>
       <c r="L39" s="9"/>
@@ -2453,44 +2386,26 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>sub_</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="U40" s="9"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G41)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G40)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L41:M41" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L40:M40" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M22:M40 G2:H40 L2:L40" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M39 L2:L39 G2:H39" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F40" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J40" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J39" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2503,13 +2418,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A39</xm:sqref>
+          <xm:sqref>A2:A38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U40</xm:sqref>
+          <xm:sqref>U2:U39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6602,28 +6517,28 @@
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C187" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C187" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="D187" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D4002-788B-4008-9D4B-F44602C8C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C4E66-FB34-4378-A85D-F789D769CBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C4E66-FB34-4378-A85D-F789D769CBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA9C8E5-68C9-460F-A40B-9D8BC44031AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="336">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1050,22 +1050,40 @@
     <t>TST_AXWAY</t>
   </si>
   <si>
+    <t>/DMZ</t>
+  </si>
+  <si>
     <t>PRO_SAP_ROUTER</t>
   </si>
   <si>
     <t>PRO_SAP_ROUTER_EXT</t>
   </si>
   <si>
+    <t>VSL-TST-OES-001</t>
+  </si>
+  <si>
     <t>VSL-TST-OES-002</t>
   </si>
   <si>
+    <t>ORACLE EXACC SCRIPT DMZ</t>
+  </si>
+  <si>
     <t>ORACLE EXACC SCRIPT LAN</t>
   </si>
   <si>
+    <t>172.22.143.100</t>
+  </si>
+  <si>
+    <t>172.22.143.1</t>
+  </si>
+  <si>
     <t>192.168.26.217</t>
   </si>
   <si>
     <t>192.168.26.1</t>
+  </si>
+  <si>
+    <t>vsl-tst-oes-001</t>
   </si>
   <si>
     <t>vsl-tst-oes-002</t>
@@ -1178,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1195,6 +1213,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1513,8 +1536,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,16 +1636,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>20</v>
@@ -1661,37 +1684,84 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="str">
+    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="13" t="str">
         <f>"sub_"&amp;G3</f>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="str">
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="15" t="str">
         <f>"stg_"&amp;G3</f>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="U3" s="9"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="N3" s="13">
+        <v>2048</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>330</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>331</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -2399,7 +2469,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L40:M40" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M39 L2:L39 G2:H39" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M39 G2:H39 L2:L39" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
@@ -2418,13 +2488,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A38</xm:sqref>
+          <xm:sqref>A2 A4:A38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U39</xm:sqref>
+          <xm:sqref>U2 U4:U39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6517,28 +6587,28 @@
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA9C8E5-68C9-460F-A40B-9D8BC44031AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE2173-9BA3-4B7D-ACCA-404DE5CCC2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -17,28 +17,24 @@
     <sheet name="params" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="cluster480">params!$I$3</definedName>
-    <definedName name="cluster481">params!$I$5</definedName>
-    <definedName name="cluster650">params!$I$4</definedName>
-    <definedName name="cluster651">params!$I$6</definedName>
-    <definedName name="dmz_vms">params!$F$4:$F$11</definedName>
-    <definedName name="lan_vms">params!$E$4:$E$11</definedName>
-    <definedName name="nut_dmz_01">params!$I$7</definedName>
-    <definedName name="nut_dmz_02">params!$I$11</definedName>
-    <definedName name="nut_dmz_03">params!$I$8</definedName>
-    <definedName name="nut_dmz_04">params!$I$12</definedName>
-    <definedName name="nut_dmz_05">params!$I$9</definedName>
-    <definedName name="nut_dmz_06">params!$I$13</definedName>
-    <definedName name="nut_dmz_07">params!$I$10</definedName>
-    <definedName name="nut_dmz_08">params!$I$14</definedName>
-    <definedName name="NUT_DMZ_DC01">params!$N$4:$N$7</definedName>
-    <definedName name="NUT_DMZ_DC02">params!$O$4:$O$7</definedName>
+    <definedName name="DMZ">params!$F$4:$F$11</definedName>
+    <definedName name="LAN">params!$E$4:$E$11</definedName>
+    <definedName name="nut_dmz_01">params!$I$5</definedName>
+    <definedName name="nut_dmz_02">params!$I$9</definedName>
+    <definedName name="nut_dmz_03">params!$I$6</definedName>
+    <definedName name="nut_dmz_04">params!$I$10</definedName>
+    <definedName name="nut_dmz_05">params!$I$7</definedName>
+    <definedName name="nut_dmz_06">params!$I$11</definedName>
+    <definedName name="nut_dmz_07">params!$I$8</definedName>
+    <definedName name="nut_dmz_08">params!$I$12</definedName>
+    <definedName name="nut_dmz_09">params!$I$13</definedName>
+    <definedName name="nut_dmz_10">params!$I$14</definedName>
+    <definedName name="NUT_DMZ_DC01">params!$N$4:$N$8</definedName>
+    <definedName name="NUT_DMZ_DC02">params!$O$4:$O$8</definedName>
     <definedName name="nutanix.dc1">params!$L$4:$L$7</definedName>
     <definedName name="nutanix.dc3">params!$M$4:$M$7</definedName>
-    <definedName name="stg_cluster480">params!$C$47:$C$62</definedName>
-    <definedName name="stg_cluster481">params!$E$47:$E$62</definedName>
-    <definedName name="stg_cluster650">params!$B$47:$B$62</definedName>
-    <definedName name="stg_cluster651">params!$D$47:$D$62</definedName>
+    <definedName name="pe_lu650">params!$I$3</definedName>
+    <definedName name="pe_lu651">params!$I$4</definedName>
     <definedName name="stg_nut_dmz_01">params!$F$47:$F$62</definedName>
     <definedName name="stg_nut_dmz_02">params!$G$47:$G$62</definedName>
     <definedName name="stg_nut_dmz_03">params!$H$47:$H$62</definedName>
@@ -47,10 +43,8 @@
     <definedName name="stg_nut_dmz_06">params!$K$47:$K$62</definedName>
     <definedName name="stg_nut_dmz_07">params!$L$47:$L$62</definedName>
     <definedName name="stg_nut_dmz_08">params!$M$47:$M$62</definedName>
-    <definedName name="sub_cluster480">params!$C$25:$C$41</definedName>
-    <definedName name="sub_cluster481">params!$E$25:$E$41</definedName>
-    <definedName name="sub_cluster650">params!$B$25:$B$41</definedName>
-    <definedName name="sub_cluster651">params!$D$25:$D$41</definedName>
+    <definedName name="stg_pe_lu650">params!$B$47:$B$62</definedName>
+    <definedName name="stg_pe_lu651">params!$D$47:$D$62</definedName>
     <definedName name="sub_nut_dmz_01">params!$B$69:$B$187</definedName>
     <definedName name="sub_nut_dmz_02">params!$C$69:$C$187</definedName>
     <definedName name="sub_nut_dmz_03">params!$D$69:$D$187</definedName>
@@ -59,6 +53,8 @@
     <definedName name="sub_nut_dmz_06">params!$G$69:$G$187</definedName>
     <definedName name="sub_nut_dmz_07">params!$H$69:$H$187</definedName>
     <definedName name="sub_nut_dmz_08">params!$I$69:$I$187</definedName>
+    <definedName name="sub_pe_lu650">params!$B$25:$B$41</definedName>
+    <definedName name="sub_pe_lu651">params!$D$25:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,14 +75,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="280">
   <si>
     <t>DOMAIN</t>
   </si>
   <si>
-    <t>lan_vms</t>
-  </si>
-  <si>
     <t>VM_NAME1</t>
   </si>
   <si>
@@ -120,9 +113,6 @@
     <t>rhel8-dc1</t>
   </si>
   <si>
-    <t>cluster480</t>
-  </si>
-  <si>
     <t>DISK2_SIZE_GB</t>
   </si>
   <si>
@@ -147,12 +137,6 @@
     <t>rhel8-dc3</t>
   </si>
   <si>
-    <t>cluster481</t>
-  </si>
-  <si>
-    <t>dmz_vms</t>
-  </si>
-  <si>
     <t>nut-dmz-01</t>
   </si>
   <si>
@@ -180,12 +164,6 @@
     <t>CLUSTERS</t>
   </si>
   <si>
-    <t>cluster650</t>
-  </si>
-  <si>
-    <t>cluster651</t>
-  </si>
-  <si>
     <t>NUT-DMZ-DC01</t>
   </si>
   <si>
@@ -201,30 +179,6 @@
     <t>sub_cl</t>
   </si>
   <si>
-    <t>sub_cluster650</t>
-  </si>
-  <si>
-    <t>sub_cluster480</t>
-  </si>
-  <si>
-    <t>sub_cluster651</t>
-  </si>
-  <si>
-    <t>sub_cluster481</t>
-  </si>
-  <si>
-    <t>stg_cluster650</t>
-  </si>
-  <si>
-    <t>stg_cluster480</t>
-  </si>
-  <si>
-    <t>stg_cluster651</t>
-  </si>
-  <si>
-    <t>stg_cluster481</t>
-  </si>
-  <si>
     <t>stg_cl</t>
   </si>
   <si>
@@ -762,108 +716,6 @@
     <t>var.ahv_651_network["VOIP"]</t>
   </si>
   <si>
-    <t>var.ahv_480_network["ESX_Management"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["historique_2_200.2"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["historique_3_200.3"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["historique_4_200.4"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["historique_9_200.9"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["HMC_37"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["native"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["New_PROD"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["Production"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VDI"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN-128-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN-20-Legacy-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN_26"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN_27"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN_40"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN_42"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VOIP"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["ESX_Management"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["historique_2_200.2"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["historique_3_200.3"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["historique_4_200.4"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["historique_9_200.9"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["HMC_37"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["native"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["New_PROD"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["Production"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VDI"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN-128-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN-20-Legacy-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN_26"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN_27"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN_40"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN_42"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VOIP"]</t>
-  </si>
-  <si>
     <t>var.ahv_650_storage["SelfServiceContainer"]</t>
   </si>
   <si>
@@ -912,42 +764,6 @@
     <t>var.ahv_650_storage["test"]</t>
   </si>
   <si>
-    <t>var.ahv_480_storage["NUT_AHV_LU480_DC01_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NUT_AHV_LU481_DC03_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NUT_VMISO"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NUT_AHV_DC1_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["SelfServiceContainer"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NutanixManagementShare"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NUT_AHV_LU480_DC01_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NUT_AHV_LU481_DC03_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NUT_VMISO"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NUT_AHV_DC1_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["SelfServiceContainer"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NutanixManagementShare"]</t>
-  </si>
-  <si>
     <t>var.ahv_651_storage["NutanixManagementShare"]</t>
   </si>
   <si>
@@ -1050,43 +866,55 @@
     <t>TST_AXWAY</t>
   </si>
   <si>
-    <t>/DMZ</t>
-  </si>
-  <si>
     <t>PRO_SAP_ROUTER</t>
   </si>
   <si>
     <t>PRO_SAP_ROUTER_EXT</t>
   </si>
   <si>
-    <t>VSL-TST-OES-001</t>
-  </si>
-  <si>
-    <t>VSL-TST-OES-002</t>
-  </si>
-  <si>
-    <t>ORACLE EXACC SCRIPT DMZ</t>
-  </si>
-  <si>
-    <t>ORACLE EXACC SCRIPT LAN</t>
-  </si>
-  <si>
-    <t>172.22.143.100</t>
-  </si>
-  <si>
-    <t>172.22.143.1</t>
-  </si>
-  <si>
-    <t>192.168.26.217</t>
-  </si>
-  <si>
-    <t>192.168.26.1</t>
-  </si>
-  <si>
-    <t>vsl-tst-oes-001</t>
-  </si>
-  <si>
-    <t>vsl-tst-oes-002</t>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>nut-dmz-09</t>
+  </si>
+  <si>
+    <t>nut-dmz-10</t>
+  </si>
+  <si>
+    <t>pe_lu650</t>
+  </si>
+  <si>
+    <t>pe_lu651</t>
+  </si>
+  <si>
+    <t>sub_pe_lu650</t>
+  </si>
+  <si>
+    <t>sub_pe_lu651</t>
+  </si>
+  <si>
+    <t>stg_pe_lu650</t>
+  </si>
+  <si>
+    <t>stg_pe_lu651</t>
+  </si>
+  <si>
+    <t>LU717</t>
+  </si>
+  <si>
+    <t>VM TEST</t>
+  </si>
+  <si>
+    <t>lu717</t>
+  </si>
+  <si>
+    <t>200.1.1.106</t>
+  </si>
+  <si>
+    <t>200.1.1.240</t>
   </si>
 </sst>
 </file>
@@ -1211,13 +1039,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,7 +1365,7 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,104 +1399,104 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="Q1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>"sub_"&amp;G2</f>
-        <v>sub_cluster651</v>
+        <v>sub_pe_lu651</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f>"stg_"&amp;G2</f>
-        <v>stg_cluster651</v>
+        <f t="shared" ref="K2:K39" si="0">"stg_"&amp;G2</f>
+        <v>stg_pe_lu651</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9">
@@ -1681,86 +1509,42 @@
         <v>1</v>
       </c>
       <c r="Q2" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="13" t="str">
+      <c r="A3" s="9"/>
+      <c r="D3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="str">
         <f>"sub_"&amp;G3</f>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="15" t="str">
-        <f>"stg_"&amp;G3</f>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="N3" s="13">
-        <v>2048</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>10</v>
-      </c>
-      <c r="R3" t="s">
-        <v>330</v>
-      </c>
-      <c r="S3">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>331</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>19</v>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="U3" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1774,14 +1558,16 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="str">
-        <f>"stg_"&amp;G4</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -1794,14 +1580,16 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="str">
-        <f>"stg_"&amp;G5</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="U5" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1809,19 +1597,21 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="str">
-        <f t="shared" ref="I6:I22" si="0">"sub_"&amp;G6</f>
+        <f t="shared" ref="I6:I22" si="1">"sub_"&amp;G6</f>
         <v>sub_</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="str">
-        <f>"stg_"&amp;G6</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="U6" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -1829,12 +1619,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="str">
-        <f>"stg_"&amp;G7</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L7" s="9"/>
@@ -1849,12 +1639,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="str">
-        <f>"stg_"&amp;G8</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L8" s="9"/>
@@ -1869,12 +1659,12 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="str">
-        <f>"stg_"&amp;G9</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L9" s="9"/>
@@ -1889,12 +1679,12 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="str">
-        <f>"stg_"&amp;G10</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L10" s="9"/>
@@ -1909,12 +1699,12 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="str">
-        <f>"stg_"&amp;G11</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L11" s="9"/>
@@ -1929,12 +1719,12 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="str">
-        <f>"stg_"&amp;G12</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L12" s="9"/>
@@ -1949,12 +1739,12 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="str">
-        <f>"stg_"&amp;G13</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L13" s="9"/>
@@ -1968,12 +1758,12 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="str">
-        <f>"stg_"&amp;G14</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L14" s="9"/>
@@ -1987,12 +1777,12 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="str">
-        <f>"stg_"&amp;G15</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L15" s="9"/>
@@ -2006,12 +1796,12 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="str">
-        <f>"stg_"&amp;G16</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L16" s="9"/>
@@ -2025,12 +1815,12 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="str">
-        <f>"stg_"&amp;G17</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L17" s="9"/>
@@ -2044,12 +1834,12 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="str">
-        <f>"stg_"&amp;G18</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L18" s="9"/>
@@ -2063,12 +1853,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="str">
-        <f>"stg_"&amp;G19</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L19" s="9"/>
@@ -2082,12 +1872,12 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="str">
-        <f>"stg_"&amp;G20</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L20" s="9"/>
@@ -2101,12 +1891,12 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="str">
-        <f>"stg_"&amp;G21</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L21" s="9"/>
@@ -2120,12 +1910,12 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="str">
-        <f>"stg_"&amp;G22</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L22" s="9"/>
@@ -2139,12 +1929,12 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="str">
-        <f t="shared" ref="I23:I39" si="1">"sub_"&amp;G23</f>
+        <f t="shared" ref="I23:I39" si="2">"sub_"&amp;G23</f>
         <v>sub_</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="str">
-        <f>"stg_"&amp;G23</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L23" s="9"/>
@@ -2158,12 +1948,12 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="str">
-        <f>"stg_"&amp;G24</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L24" s="9"/>
@@ -2177,12 +1967,12 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="str">
-        <f>"stg_"&amp;G25</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L25" s="9"/>
@@ -2196,12 +1986,12 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="str">
-        <f>"stg_"&amp;G26</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L26" s="9"/>
@@ -2215,12 +2005,12 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="str">
-        <f>"stg_"&amp;G27</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L27" s="9"/>
@@ -2234,12 +2024,12 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="str">
-        <f>"stg_"&amp;G28</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L28" s="9"/>
@@ -2253,12 +2043,12 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="str">
-        <f>"stg_"&amp;G29</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L29" s="9"/>
@@ -2272,12 +2062,12 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="str">
-        <f>"stg_"&amp;G30</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L30" s="9"/>
@@ -2291,12 +2081,12 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="str">
-        <f>"stg_"&amp;G31</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L31" s="9"/>
@@ -2310,12 +2100,12 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="str">
-        <f>"stg_"&amp;G32</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L32" s="9"/>
@@ -2329,12 +2119,12 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="str">
-        <f>"stg_"&amp;G33</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L33" s="9"/>
@@ -2348,12 +2138,12 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="str">
-        <f>"stg_"&amp;G34</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L34" s="9"/>
@@ -2367,12 +2157,12 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="str">
-        <f>"stg_"&amp;G35</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L35" s="9"/>
@@ -2386,12 +2176,12 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="str">
-        <f>"stg_"&amp;G36</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L36" s="9"/>
@@ -2405,12 +2195,12 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="str">
-        <f>"stg_"&amp;G37</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L37" s="9"/>
@@ -2424,12 +2214,12 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="str">
-        <f>"stg_"&amp;G38</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L38" s="9"/>
@@ -2442,12 +2232,12 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="str">
-        <f>"stg_"&amp;G39</f>
+        <f t="shared" si="0"/>
         <v>stg_</v>
       </c>
       <c r="L39" s="9"/>
@@ -2469,7 +2259,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L40:M40" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M39 G2:H39 L2:L39" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M39 L2:L39 G2:H39" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
@@ -2488,13 +2278,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A4:A38</xm:sqref>
+          <xm:sqref>A2:A38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2 U4:U39</xm:sqref>
+          <xm:sqref>U2:U39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2507,8 +2297,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="C178" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,128 +2315,122 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="L2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2654,13 +2438,13 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2668,23 +2452,29 @@
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>267</v>
+      </c>
+      <c r="O8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -2692,7 +2482,7 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -2700,3915 +2490,3765 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>306</v>
-      </c>
-      <c r="C29" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E32" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="D36" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
-      </c>
-      <c r="E38" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
-      </c>
-      <c r="E41" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="B45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K46" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L46" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="M46" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>261</v>
-      </c>
-      <c r="C47" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
-      </c>
-      <c r="E47" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K47" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L47" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>262</v>
-      </c>
-      <c r="C48" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>290</v>
-      </c>
-      <c r="E48" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L48" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M48" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>263</v>
-      </c>
-      <c r="C49" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
-      </c>
-      <c r="E49" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>264</v>
-      </c>
-      <c r="C50" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>292</v>
-      </c>
-      <c r="E50" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L50" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
-      </c>
-      <c r="E51" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="L51" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M51" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>266</v>
-      </c>
-      <c r="C52" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>294</v>
-      </c>
-      <c r="E52" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="L52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="M52" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L55" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M55" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="L56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M56" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H57" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I57" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J57" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="L57" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M57" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="D58" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I58" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="M58" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D60" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+      <c r="B67" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G68" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H68" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I68" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I69" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I71" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I72" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I73" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I74" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I75" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I76" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I77" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I80" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G81" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I82" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I83" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I84" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F87" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I88" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G89" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I89" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G90" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I90" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G92" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I92" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="I93" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G95" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H95" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="I95" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I96" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I97" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G98" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I98" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F102" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G102" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H102" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I102" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G103" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H103" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="I103" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H104" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I104" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G105" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I105" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G106" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H106" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I106" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G107" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I107" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="I108" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G110" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I110" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="I111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F112" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H112" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I112" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G114" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H114" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I114" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F115" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G115" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H115" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I115" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="H116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G117" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="H117" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I117" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F118" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G118" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I118" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F119" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H119" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I119" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F122" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G122" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I122" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G123" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H123" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I123" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F124" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G124" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H124" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="I124" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G125" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H125" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I125" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F126" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G126" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H126" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="I126" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G127" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H127" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F128" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G128" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H128" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="I128" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D129" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F129" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G129" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H129" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="I129" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G130" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H130" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D131" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F131" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G131" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="H131" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="I131" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F132" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G132" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H132" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="I132" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F133" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G133" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H133" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="I133" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F134" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G134" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H134" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I134" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F135" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G135" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H135" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I135" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F137" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G137" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H137" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I137" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F138" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G138" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H138" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="I138" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G139" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H139" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I139" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F140" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G140" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="H140" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F141" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G141" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H141" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="I141" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F142" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G142" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="H142" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I142" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F143" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G143" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H143" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I143" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F144" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G144" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="H144" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="I144" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F145" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G145" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H145" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I145" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F146" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G146" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H146" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I146" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D147" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F147" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G147" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H147" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I147" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F148" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G148" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H148" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I148" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D149" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F149" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G149" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="H149" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I149" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D150" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F150" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G150" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="H150" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I150" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F151" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G151" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H151" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I151" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D152" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F152" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G152" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H152" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I152" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D153" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F153" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G153" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H153" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="I153" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D154" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F154" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G154" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H154" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I154" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D155" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F155" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G155" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H155" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="I155" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D156" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F156" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G156" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H156" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I156" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D157" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F157" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G157" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H157" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I157" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D158" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F158" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G158" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H158" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="I158" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D159" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F159" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H159" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I159" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D160" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F160" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G160" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H160" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I160" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D161" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F161" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G161" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H161" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I161" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D162" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F162" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G162" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H162" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I162" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D163" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F163" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G163" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H163" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="I163" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D164" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F164" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G164" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H164" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="I164" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D165" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F165" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G165" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H165" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="I165" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D166" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F166" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G166" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H166" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I166" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D167" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F167" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G167" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H167" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="I167" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D168" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F168" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G168" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H168" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I168" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D169" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E169" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G169" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H169" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I169" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C170" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D170" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E170" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F170" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G170" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H170" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I170" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D171" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E171" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F171" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G171" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H171" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I171" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="C172" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="D172" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="E172" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="F172" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="G172" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="H172" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="I172" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="6" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="11" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE2173-9BA3-4B7D-ACCA-404DE5CCC2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA9C8E5-68C9-460F-A40B-9D8BC44031AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -17,24 +17,28 @@
     <sheet name="params" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DMZ">params!$F$4:$F$11</definedName>
-    <definedName name="LAN">params!$E$4:$E$11</definedName>
-    <definedName name="nut_dmz_01">params!$I$5</definedName>
-    <definedName name="nut_dmz_02">params!$I$9</definedName>
-    <definedName name="nut_dmz_03">params!$I$6</definedName>
-    <definedName name="nut_dmz_04">params!$I$10</definedName>
-    <definedName name="nut_dmz_05">params!$I$7</definedName>
-    <definedName name="nut_dmz_06">params!$I$11</definedName>
-    <definedName name="nut_dmz_07">params!$I$8</definedName>
-    <definedName name="nut_dmz_08">params!$I$12</definedName>
-    <definedName name="nut_dmz_09">params!$I$13</definedName>
-    <definedName name="nut_dmz_10">params!$I$14</definedName>
-    <definedName name="NUT_DMZ_DC01">params!$N$4:$N$8</definedName>
-    <definedName name="NUT_DMZ_DC02">params!$O$4:$O$8</definedName>
+    <definedName name="cluster480">params!$I$3</definedName>
+    <definedName name="cluster481">params!$I$5</definedName>
+    <definedName name="cluster650">params!$I$4</definedName>
+    <definedName name="cluster651">params!$I$6</definedName>
+    <definedName name="dmz_vms">params!$F$4:$F$11</definedName>
+    <definedName name="lan_vms">params!$E$4:$E$11</definedName>
+    <definedName name="nut_dmz_01">params!$I$7</definedName>
+    <definedName name="nut_dmz_02">params!$I$11</definedName>
+    <definedName name="nut_dmz_03">params!$I$8</definedName>
+    <definedName name="nut_dmz_04">params!$I$12</definedName>
+    <definedName name="nut_dmz_05">params!$I$9</definedName>
+    <definedName name="nut_dmz_06">params!$I$13</definedName>
+    <definedName name="nut_dmz_07">params!$I$10</definedName>
+    <definedName name="nut_dmz_08">params!$I$14</definedName>
+    <definedName name="NUT_DMZ_DC01">params!$N$4:$N$7</definedName>
+    <definedName name="NUT_DMZ_DC02">params!$O$4:$O$7</definedName>
     <definedName name="nutanix.dc1">params!$L$4:$L$7</definedName>
     <definedName name="nutanix.dc3">params!$M$4:$M$7</definedName>
-    <definedName name="pe_lu650">params!$I$3</definedName>
-    <definedName name="pe_lu651">params!$I$4</definedName>
+    <definedName name="stg_cluster480">params!$C$47:$C$62</definedName>
+    <definedName name="stg_cluster481">params!$E$47:$E$62</definedName>
+    <definedName name="stg_cluster650">params!$B$47:$B$62</definedName>
+    <definedName name="stg_cluster651">params!$D$47:$D$62</definedName>
     <definedName name="stg_nut_dmz_01">params!$F$47:$F$62</definedName>
     <definedName name="stg_nut_dmz_02">params!$G$47:$G$62</definedName>
     <definedName name="stg_nut_dmz_03">params!$H$47:$H$62</definedName>
@@ -43,8 +47,10 @@
     <definedName name="stg_nut_dmz_06">params!$K$47:$K$62</definedName>
     <definedName name="stg_nut_dmz_07">params!$L$47:$L$62</definedName>
     <definedName name="stg_nut_dmz_08">params!$M$47:$M$62</definedName>
-    <definedName name="stg_pe_lu650">params!$B$47:$B$62</definedName>
-    <definedName name="stg_pe_lu651">params!$D$47:$D$62</definedName>
+    <definedName name="sub_cluster480">params!$C$25:$C$41</definedName>
+    <definedName name="sub_cluster481">params!$E$25:$E$41</definedName>
+    <definedName name="sub_cluster650">params!$B$25:$B$41</definedName>
+    <definedName name="sub_cluster651">params!$D$25:$D$41</definedName>
     <definedName name="sub_nut_dmz_01">params!$B$69:$B$187</definedName>
     <definedName name="sub_nut_dmz_02">params!$C$69:$C$187</definedName>
     <definedName name="sub_nut_dmz_03">params!$D$69:$D$187</definedName>
@@ -53,8 +59,6 @@
     <definedName name="sub_nut_dmz_06">params!$G$69:$G$187</definedName>
     <definedName name="sub_nut_dmz_07">params!$H$69:$H$187</definedName>
     <definedName name="sub_nut_dmz_08">params!$I$69:$I$187</definedName>
-    <definedName name="sub_pe_lu650">params!$B$25:$B$41</definedName>
-    <definedName name="sub_pe_lu651">params!$D$25:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,11 +79,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="336">
   <si>
     <t>DOMAIN</t>
   </si>
   <si>
+    <t>lan_vms</t>
+  </si>
+  <si>
     <t>VM_NAME1</t>
   </si>
   <si>
@@ -113,6 +120,9 @@
     <t>rhel8-dc1</t>
   </si>
   <si>
+    <t>cluster480</t>
+  </si>
+  <si>
     <t>DISK2_SIZE_GB</t>
   </si>
   <si>
@@ -137,6 +147,12 @@
     <t>rhel8-dc3</t>
   </si>
   <si>
+    <t>cluster481</t>
+  </si>
+  <si>
+    <t>dmz_vms</t>
+  </si>
+  <si>
     <t>nut-dmz-01</t>
   </si>
   <si>
@@ -164,6 +180,12 @@
     <t>CLUSTERS</t>
   </si>
   <si>
+    <t>cluster650</t>
+  </si>
+  <si>
+    <t>cluster651</t>
+  </si>
+  <si>
     <t>NUT-DMZ-DC01</t>
   </si>
   <si>
@@ -179,6 +201,30 @@
     <t>sub_cl</t>
   </si>
   <si>
+    <t>sub_cluster650</t>
+  </si>
+  <si>
+    <t>sub_cluster480</t>
+  </si>
+  <si>
+    <t>sub_cluster651</t>
+  </si>
+  <si>
+    <t>sub_cluster481</t>
+  </si>
+  <si>
+    <t>stg_cluster650</t>
+  </si>
+  <si>
+    <t>stg_cluster480</t>
+  </si>
+  <si>
+    <t>stg_cluster651</t>
+  </si>
+  <si>
+    <t>stg_cluster481</t>
+  </si>
+  <si>
     <t>stg_cl</t>
   </si>
   <si>
@@ -716,6 +762,108 @@
     <t>var.ahv_651_network["VOIP"]</t>
   </si>
   <si>
+    <t>var.ahv_480_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VOIP"]</t>
+  </si>
+  <si>
     <t>var.ahv_650_storage["SelfServiceContainer"]</t>
   </si>
   <si>
@@ -764,6 +912,42 @@
     <t>var.ahv_650_storage["test"]</t>
   </si>
   <si>
+    <t>var.ahv_480_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
     <t>var.ahv_651_storage["NutanixManagementShare"]</t>
   </si>
   <si>
@@ -866,55 +1050,43 @@
     <t>TST_AXWAY</t>
   </si>
   <si>
+    <t>/DMZ</t>
+  </si>
+  <si>
     <t>PRO_SAP_ROUTER</t>
   </si>
   <si>
     <t>PRO_SAP_ROUTER_EXT</t>
   </si>
   <si>
-    <t>LAN</t>
-  </si>
-  <si>
-    <t>DMZ</t>
-  </si>
-  <si>
-    <t>nut-dmz-09</t>
-  </si>
-  <si>
-    <t>nut-dmz-10</t>
-  </si>
-  <si>
-    <t>pe_lu650</t>
-  </si>
-  <si>
-    <t>pe_lu651</t>
-  </si>
-  <si>
-    <t>sub_pe_lu650</t>
-  </si>
-  <si>
-    <t>sub_pe_lu651</t>
-  </si>
-  <si>
-    <t>stg_pe_lu650</t>
-  </si>
-  <si>
-    <t>stg_pe_lu651</t>
-  </si>
-  <si>
-    <t>LU717</t>
-  </si>
-  <si>
-    <t>VM TEST</t>
-  </si>
-  <si>
-    <t>lu717</t>
-  </si>
-  <si>
-    <t>200.1.1.106</t>
-  </si>
-  <si>
-    <t>200.1.1.240</t>
+    <t>VSL-TST-OES-001</t>
+  </si>
+  <si>
+    <t>VSL-TST-OES-002</t>
+  </si>
+  <si>
+    <t>ORACLE EXACC SCRIPT DMZ</t>
+  </si>
+  <si>
+    <t>ORACLE EXACC SCRIPT LAN</t>
+  </si>
+  <si>
+    <t>172.22.143.100</t>
+  </si>
+  <si>
+    <t>172.22.143.1</t>
+  </si>
+  <si>
+    <t>192.168.26.217</t>
+  </si>
+  <si>
+    <t>192.168.26.1</t>
+  </si>
+  <si>
+    <t>vsl-tst-oes-001</t>
+  </si>
+  <si>
+    <t>vsl-tst-oes-002</t>
   </si>
 </sst>
 </file>
@@ -1039,13 +1211,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1365,7 +1537,7 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,104 +1571,104 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>"sub_"&amp;G2</f>
-        <v>sub_pe_lu651</v>
+        <v>sub_cluster651</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K39" si="0">"stg_"&amp;G2</f>
-        <v>stg_pe_lu651</v>
+        <f>"stg_"&amp;G2</f>
+        <v>stg_cluster651</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9">
@@ -1509,42 +1681,86 @@
         <v>1</v>
       </c>
       <c r="Q2" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="D3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="str">
+      <c r="A3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="13" t="str">
         <f>"sub_"&amp;G3</f>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="U3" s="9" t="s">
-        <v>17</v>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="15" t="str">
+        <f>"stg_"&amp;G3</f>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="N3" s="13">
+        <v>2048</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>330</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>331</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1558,16 +1774,14 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G4</f>
         <v>stg_</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="U4" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -1580,16 +1794,14 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G5</f>
         <v>stg_</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="U5" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1597,21 +1809,19 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="str">
-        <f t="shared" ref="I6:I22" si="1">"sub_"&amp;G6</f>
+        <f t="shared" ref="I6:I22" si="0">"sub_"&amp;G6</f>
         <v>sub_</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G6</f>
         <v>stg_</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="U6" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -1619,12 +1829,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G7</f>
         <v>stg_</v>
       </c>
       <c r="L7" s="9"/>
@@ -1639,12 +1849,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G8</f>
         <v>stg_</v>
       </c>
       <c r="L8" s="9"/>
@@ -1659,12 +1869,12 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G9</f>
         <v>stg_</v>
       </c>
       <c r="L9" s="9"/>
@@ -1679,12 +1889,12 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G10</f>
         <v>stg_</v>
       </c>
       <c r="L10" s="9"/>
@@ -1699,12 +1909,12 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G11</f>
         <v>stg_</v>
       </c>
       <c r="L11" s="9"/>
@@ -1719,12 +1929,12 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G12</f>
         <v>stg_</v>
       </c>
       <c r="L12" s="9"/>
@@ -1739,12 +1949,12 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G13</f>
         <v>stg_</v>
       </c>
       <c r="L13" s="9"/>
@@ -1758,12 +1968,12 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G14</f>
         <v>stg_</v>
       </c>
       <c r="L14" s="9"/>
@@ -1777,12 +1987,12 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G15</f>
         <v>stg_</v>
       </c>
       <c r="L15" s="9"/>
@@ -1796,12 +2006,12 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G16</f>
         <v>stg_</v>
       </c>
       <c r="L16" s="9"/>
@@ -1815,12 +2025,12 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G17</f>
         <v>stg_</v>
       </c>
       <c r="L17" s="9"/>
@@ -1834,12 +2044,12 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G18</f>
         <v>stg_</v>
       </c>
       <c r="L18" s="9"/>
@@ -1853,12 +2063,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G19</f>
         <v>stg_</v>
       </c>
       <c r="L19" s="9"/>
@@ -1872,12 +2082,12 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G20</f>
         <v>stg_</v>
       </c>
       <c r="L20" s="9"/>
@@ -1891,12 +2101,12 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G21</f>
         <v>stg_</v>
       </c>
       <c r="L21" s="9"/>
@@ -1910,12 +2120,12 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G22</f>
         <v>stg_</v>
       </c>
       <c r="L22" s="9"/>
@@ -1929,12 +2139,12 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="str">
-        <f t="shared" ref="I23:I39" si="2">"sub_"&amp;G23</f>
+        <f t="shared" ref="I23:I39" si="1">"sub_"&amp;G23</f>
         <v>sub_</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G23</f>
         <v>stg_</v>
       </c>
       <c r="L23" s="9"/>
@@ -1948,12 +2158,12 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G24</f>
         <v>stg_</v>
       </c>
       <c r="L24" s="9"/>
@@ -1967,12 +2177,12 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G25</f>
         <v>stg_</v>
       </c>
       <c r="L25" s="9"/>
@@ -1986,12 +2196,12 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G26</f>
         <v>stg_</v>
       </c>
       <c r="L26" s="9"/>
@@ -2005,12 +2215,12 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G27</f>
         <v>stg_</v>
       </c>
       <c r="L27" s="9"/>
@@ -2024,12 +2234,12 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G28</f>
         <v>stg_</v>
       </c>
       <c r="L28" s="9"/>
@@ -2043,12 +2253,12 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G29</f>
         <v>stg_</v>
       </c>
       <c r="L29" s="9"/>
@@ -2062,12 +2272,12 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G30</f>
         <v>stg_</v>
       </c>
       <c r="L30" s="9"/>
@@ -2081,12 +2291,12 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G31</f>
         <v>stg_</v>
       </c>
       <c r="L31" s="9"/>
@@ -2100,12 +2310,12 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G32</f>
         <v>stg_</v>
       </c>
       <c r="L32" s="9"/>
@@ -2119,12 +2329,12 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G33</f>
         <v>stg_</v>
       </c>
       <c r="L33" s="9"/>
@@ -2138,12 +2348,12 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G34</f>
         <v>stg_</v>
       </c>
       <c r="L34" s="9"/>
@@ -2157,12 +2367,12 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G35</f>
         <v>stg_</v>
       </c>
       <c r="L35" s="9"/>
@@ -2176,12 +2386,12 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G36</f>
         <v>stg_</v>
       </c>
       <c r="L36" s="9"/>
@@ -2195,12 +2405,12 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G37</f>
         <v>stg_</v>
       </c>
       <c r="L37" s="9"/>
@@ -2214,12 +2424,12 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G38</f>
         <v>stg_</v>
       </c>
       <c r="L38" s="9"/>
@@ -2232,12 +2442,12 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>"stg_"&amp;G39</f>
         <v>stg_</v>
       </c>
       <c r="L39" s="9"/>
@@ -2259,7 +2469,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L40:M40" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M39 L2:L39 G2:H39" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M39 G2:H39 L2:L39" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
@@ -2278,13 +2488,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A38</xm:sqref>
+          <xm:sqref>A2 A4:A38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U39</xm:sqref>
+          <xm:sqref>U2 U4:U39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2297,8 +2507,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="C178" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,122 +2525,128 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="H2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2438,13 +2654,13 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2452,29 +2668,23 @@
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>267</v>
-      </c>
-      <c r="O8" t="s">
-        <v>268</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -2482,7 +2692,7 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -2490,3765 +2700,3915 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>271</v>
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>181</v>
+        <v>195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>182</v>
+        <v>196</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+      <c r="E26" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>183</v>
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>213</v>
+      </c>
+      <c r="E27" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>184</v>
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E28" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>246</v>
+        <v>306</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>305</v>
+      </c>
+      <c r="E29" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>185</v>
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>215</v>
+      </c>
+      <c r="E30" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>186</v>
+        <v>200</v>
+      </c>
+      <c r="C31" t="s">
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>216</v>
+      </c>
+      <c r="E31" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="C32" t="s">
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>217</v>
+      </c>
+      <c r="E32" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>188</v>
+        <v>202</v>
+      </c>
+      <c r="C33" t="s">
+        <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>189</v>
+        <v>203</v>
+      </c>
+      <c r="C34" t="s">
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>219</v>
+      </c>
+      <c r="E34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>190</v>
+        <v>204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>220</v>
+      </c>
+      <c r="E35" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>191</v>
+        <v>205</v>
+      </c>
+      <c r="C36" t="s">
+        <v>238</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>192</v>
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>222</v>
+      </c>
+      <c r="E37" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>193</v>
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>240</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>223</v>
+      </c>
+      <c r="E38" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>194</v>
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>241</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>224</v>
+      </c>
+      <c r="E39" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>242</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>226</v>
+      </c>
+      <c r="E41" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
+      <c r="B45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>273</v>
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M46" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>213</v>
+        <v>261</v>
+      </c>
+      <c r="C47" t="s">
+        <v>277</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>289</v>
+      </c>
+      <c r="E47" t="s">
+        <v>283</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K47" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M47" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>214</v>
+        <v>262</v>
+      </c>
+      <c r="C48" t="s">
+        <v>278</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>290</v>
+      </c>
+      <c r="E48" t="s">
+        <v>284</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="L48" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M48" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>215</v>
+        <v>263</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
       </c>
       <c r="D49" t="s">
-        <v>231</v>
+        <v>291</v>
+      </c>
+      <c r="E49" t="s">
+        <v>285</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="L49" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M49" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>216</v>
+        <v>264</v>
+      </c>
+      <c r="C50" t="s">
+        <v>280</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
+        <v>292</v>
+      </c>
+      <c r="E50" t="s">
+        <v>286</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K50" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L50" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>217</v>
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>281</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
+        <v>293</v>
+      </c>
+      <c r="E51" t="s">
+        <v>287</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K51" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M51" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>218</v>
+        <v>266</v>
+      </c>
+      <c r="C52" t="s">
+        <v>282</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>294</v>
+      </c>
+      <c r="E52" t="s">
+        <v>288</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I52" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K52" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="L52" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M52" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G53" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M53" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="L54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M54" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K55" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="L55" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M55" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="L56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M56" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K57" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L57" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M57" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I58" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K58" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="L58" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="M58" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
+      <c r="B67" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="G68" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="H68" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I68" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I70" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E73" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I74" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I75" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G77" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I77" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E81" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H81" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I81" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H82" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I82" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G83" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I83" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H84" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I84" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I85" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="I87" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I88" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E89" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H89" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I89" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F90" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G90" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I90" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F91" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H91" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I91" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F92" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G92" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="H92" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I92" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G93" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H93" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F94" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G94" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H94" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I94" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G95" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H95" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I95" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G96" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H96" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I96" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H97" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I97" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G98" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H98" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I98" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F100" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G100" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H100" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="I100" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F101" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G101" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H101" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I101" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F102" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G102" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H102" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="I102" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C103" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G103" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="H103" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="I103" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F104" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G104" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="H104" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="I104" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G105" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H105" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I105" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F106" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G106" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H106" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="I106" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F107" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G107" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H107" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I107" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D108" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E108" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F108" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G108" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="H108" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I108" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E109" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F109" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G109" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H109" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F110" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G110" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="H110" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E111" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F111" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G111" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I111" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D112" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E112" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F112" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G112" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H112" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I112" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D113" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E113" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F113" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G113" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H113" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="I113" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D114" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E114" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F114" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G114" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H114" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="I114" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="H115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I115" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F116" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G116" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H116" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I116" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E117" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F117" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G117" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H117" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="I117" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E119" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F119" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G119" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H119" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="I119" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D120" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E120" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G120" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H120" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="I120" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E121" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F121" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G121" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H121" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I121" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E122" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F122" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G122" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H122" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="I122" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E123" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F123" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G123" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H123" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I123" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I124" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C125" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D125" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F125" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G125" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H125" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I125" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E126" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F126" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G126" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H126" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I126" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D127" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E127" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F127" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G127" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="I127" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C128" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D128" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E128" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F128" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G128" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H128" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I128" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C129" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E129" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F129" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G129" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H129" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="I129" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D130" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E130" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G130" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H130" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I130" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F131" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G131" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H131" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I131" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D132" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E132" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F132" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G132" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="H132" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I132" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="I133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D134" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E134" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G134" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H134" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I134" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="I135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D136" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E136" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F136" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G136" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H136" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I136" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D137" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E137" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F137" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G137" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H137" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="I137" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C138" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D138" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E138" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F138" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G138" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H138" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="I138" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C139" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D139" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E139" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H139" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I139" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D140" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E140" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F140" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H140" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I140" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E141" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F141" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H141" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="I141" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="H142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C143" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D143" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E143" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F143" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G143" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H143" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I143" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C144" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E144" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F144" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G144" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H144" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="I144" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D145" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E145" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G145" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H145" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="I145" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C146" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D146" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E146" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F146" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G146" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="H146" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I146" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D147" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E147" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F147" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G147" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H147" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I147" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="I148" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I149" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D150" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E150" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F150" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G150" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H150" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I150" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C151" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D151" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E151" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F151" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G151" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H151" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="I151" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C152" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D152" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E152" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F152" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G152" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="H152" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I152" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D153" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E153" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F153" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G153" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H153" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="I153" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D154" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E154" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F154" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G154" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="H154" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I154" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D155" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E155" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F155" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G155" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="H155" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="I155" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I156" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D157" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E157" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F157" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G157" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="H157" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I157" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D158" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E158" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F158" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G158" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H158" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I158" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E159" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F159" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G159" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H159" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="I159" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D160" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E160" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F160" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G160" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H160" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I160" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D161" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E161" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F161" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G161" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H161" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="I161" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="H162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D163" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E163" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F163" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G163" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H163" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="I163" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E164" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F164" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G164" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="H164" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I164" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D165" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E165" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F165" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G165" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H165" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I165" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D166" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E166" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F166" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G166" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H166" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I166" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D167" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E167" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F167" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G167" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H167" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="I167" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D168" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E168" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="F168" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G168" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="H168" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="I168" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C169" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D169" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E169" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F169" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G169" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H169" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="I169" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="G170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="H170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="I170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C171" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D171" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E171" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F171" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G171" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H171" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="I171" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="C172" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="D172" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="E172" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="F172" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="G172" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="H172" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="I172" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="6" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="11" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB32215-5FD9-4BC8-96BD-43A385390EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7688CC82-FBD5-4250-B526-4588FB94BF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1364,8 +1364,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1482,7 @@
         <v>270</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>"sub_"&amp;G2</f>
@@ -2297,8 +2297,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7688CC82-FBD5-4250-B526-4588FB94BF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083115D8-0AEA-4E3C-920A-C3BD8554D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -902,19 +902,19 @@
     <t>stg_pe_lu651</t>
   </si>
   <si>
-    <t>LU717</t>
-  </si>
-  <si>
     <t>VM TEST</t>
   </si>
   <si>
-    <t>lu717</t>
-  </si>
-  <si>
-    <t>200.1.1.106</t>
-  </si>
-  <si>
     <t>200.1.1.240</t>
+  </si>
+  <si>
+    <t>LU718</t>
+  </si>
+  <si>
+    <t>lu718</t>
+  </si>
+  <si>
+    <t>200.1.1.105</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1364,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,39 +1464,39 @@
         <v>265</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>"sub_"&amp;G2</f>
-        <v>sub_pe_lu651</v>
+        <v>sub_pe_lu650</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K2" s="10" t="str">
         <f t="shared" ref="K2:K39" si="0">"stg_"&amp;G2</f>
-        <v>stg_pe_lu651</v>
+        <v>stg_pe_lu650</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9">
@@ -1512,13 +1512,13 @@
         <v>50</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>17</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083115D8-0AEA-4E3C-920A-C3BD8554D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BCAFB2-AC2F-4C05-9A09-2D99AB5267DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="283">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,6 +915,15 @@
   </si>
   <si>
     <t>200.1.1.105</t>
+  </si>
+  <si>
+    <t>LU717</t>
+  </si>
+  <si>
+    <t>lu717</t>
+  </si>
+  <si>
+    <t>200.1.1.106</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1373,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,24 +1534,66 @@
       </c>
     </row>
     <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="D3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="A3" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="12" t="str">
         <f>"sub_"&amp;G3</f>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="14"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="K3" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="12"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="N3" s="12">
+        <v>2048</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
+        <v>282</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>276</v>
+      </c>
       <c r="U3" s="9" t="s">
         <v>17</v>
       </c>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BCAFB2-AC2F-4C05-9A09-2D99AB5267DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC8DCB-CC9E-4243-A808-25FEFE4F4453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="287">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -924,6 +924,18 @@
   </si>
   <si>
     <t>200.1.1.106</t>
+  </si>
+  <si>
+    <t>LU686</t>
+  </si>
+  <si>
+    <t>lu686</t>
+  </si>
+  <si>
+    <t>172.22.160.2</t>
+  </si>
+  <si>
+    <t>172.22.160.1</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1386,7 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,23 +1611,66 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="I4" s="9" t="str">
         <f>"sub_"&amp;G4</f>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="10"/>
+        <v>sub_nut-dmz-03</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="K4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="9"/>
+        <v>stg_nut-dmz-03</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="N4" s="9">
+        <v>2048</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>100</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="S4" s="9">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="U4" s="9" t="s">
         <v>17</v>
       </c>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC8DCB-CC9E-4243-A808-25FEFE4F4453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716AC00-5C26-4139-9EF6-E3C4DD49E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="280">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,27 +915,6 @@
   </si>
   <si>
     <t>200.1.1.105</t>
-  </si>
-  <si>
-    <t>LU717</t>
-  </si>
-  <si>
-    <t>lu717</t>
-  </si>
-  <si>
-    <t>200.1.1.106</t>
-  </si>
-  <si>
-    <t>LU686</t>
-  </si>
-  <si>
-    <t>lu686</t>
-  </si>
-  <si>
-    <t>172.22.160.2</t>
-  </si>
-  <si>
-    <t>172.22.160.1</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1060,11 +1039,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1383,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1487,7 @@
         <v>183</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K39" si="0">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K37" si="0">"stg_"&amp;G2</f>
         <v>stg_pe_lu650</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -1545,132 +1519,46 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="12" t="str">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="str">
         <f>"sub_"&amp;G3</f>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="14" t="str">
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12">
-        <v>2048</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>100</v>
-      </c>
-      <c r="R3" t="s">
-        <v>282</v>
-      </c>
-      <c r="S3">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>276</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="Q3" s="9"/>
       <c r="U3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="9" t="str">
-        <f>"sub_"&amp;G4</f>
-        <v>sub_nut-dmz-03</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>130</v>
-      </c>
+        <f t="shared" ref="I4:I20" si="1">"sub_"&amp;G4</f>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>stg_nut-dmz-03</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="9">
-        <v>2048</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>100</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="S4" s="9">
-        <v>24</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>286</v>
-      </c>
+      <c r="N4" s="9"/>
+      <c r="Q4" s="9"/>
       <c r="U4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1681,7 +1569,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="str">
-        <f>"sub_"&amp;G5</f>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J5" s="10"/>
@@ -1693,9 +1581,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="U5" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1703,7 +1589,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="str">
-        <f t="shared" ref="I6:I22" si="1">"sub_"&amp;G6</f>
+        <f t="shared" si="1"/>
         <v>sub_</v>
       </c>
       <c r="J6" s="10"/>
@@ -1715,9 +1601,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="U6" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -1816,7 +1700,6 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="Q11" s="9"/>
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1836,7 +1719,6 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="Q12" s="9"/>
       <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1997,7 +1879,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I21:I37" si="2">"sub_"&amp;G21</f>
         <v>sub_</v>
       </c>
       <c r="J21" s="10"/>
@@ -2016,7 +1898,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="10"/>
@@ -2035,7 +1917,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="str">
-        <f t="shared" ref="I23:I39" si="2">"sub_"&amp;G23</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J23" s="10"/>
@@ -2296,7 +2178,6 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2315,63 +2196,26 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="U38" s="9"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="U39" s="9"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G40)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H38" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G38)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L40:M40" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L38:M38" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M39 L2:L39 G2:H39" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M37 G2:H37 L2:L37" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J39" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J37" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2384,13 +2228,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A38</xm:sqref>
+          <xm:sqref>A2:A36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U39</xm:sqref>
+          <xm:sqref>U2:U37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2423,20 +2267,20 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="I2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2616,12 +2460,12 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2768,20 +2612,20 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -3226,16 +3070,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716AC00-5C26-4139-9EF6-E3C4DD49E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D17BA-9258-42F0-B946-FE006D68B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="283">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,6 +915,15 @@
   </si>
   <si>
     <t>200.1.1.105</t>
+  </si>
+  <si>
+    <t>LU717</t>
+  </si>
+  <si>
+    <t>lu717</t>
+  </si>
+  <si>
+    <t>200.1.1.106</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1368,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,23 +1529,66 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="9" t="str">
         <f>"sub_"&amp;G3</f>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="10"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="K3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="9"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>241</v>
+      </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="N3" s="9">
+        <v>2048</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="U3" s="9" t="s">
         <v>17</v>
       </c>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D17BA-9258-42F0-B946-FE006D68B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2324DCEA-1484-4ABA-A081-6AAA988053ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="288">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -924,6 +924,21 @@
   </si>
   <si>
     <t>200.1.1.106</t>
+  </si>
+  <si>
+    <t>LU686</t>
+  </si>
+  <si>
+    <t>lu686</t>
+  </si>
+  <si>
+    <t>172.22.160.2</t>
+  </si>
+  <si>
+    <t>172.22.160.1</t>
+  </si>
+  <si>
+    <t>/DMZ</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1384,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,25 +1609,70 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="I4" s="9" t="str">
         <f t="shared" ref="I4:I20" si="1">"sub_"&amp;G4</f>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="10"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="K4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="Q4" s="9"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2048</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>70</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="U4" s="9" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2324DCEA-1484-4ABA-A081-6AAA988053ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A00B2-44B4-45FC-90B0-33703C92FB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="280">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,30 +915,6 @@
   </si>
   <si>
     <t>200.1.1.105</t>
-  </si>
-  <si>
-    <t>LU717</t>
-  </si>
-  <si>
-    <t>lu717</t>
-  </si>
-  <si>
-    <t>200.1.1.106</t>
-  </si>
-  <si>
-    <t>LU686</t>
-  </si>
-  <si>
-    <t>lu686</t>
-  </si>
-  <si>
-    <t>172.22.160.2</t>
-  </si>
-  <si>
-    <t>172.22.160.1</t>
-  </si>
-  <si>
-    <t>/DMZ</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1487,7 @@
         <v>183</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K37" si="0">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K35" si="0">"stg_"&amp;G2</f>
         <v>stg_pe_lu650</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -1544,136 +1520,44 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="9" t="str">
-        <f>"sub_"&amp;G3</f>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>199</v>
-      </c>
+        <f t="shared" ref="I3:I18" si="1">"sub_"&amp;G3</f>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>241</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="9">
-        <v>2048</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>100</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="N3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="9" t="str">
-        <f t="shared" ref="I4:I20" si="1">"sub_"&amp;G4</f>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>130</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="N4" s="9">
-        <v>2048</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>70</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="S4" s="6">
-        <v>24</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>260</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -1772,7 +1656,6 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="Q9" s="9"/>
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1792,7 +1675,6 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="Q10" s="9"/>
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1953,7 +1835,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I19:I35" si="2">"sub_"&amp;G19</f>
         <v>sub_</v>
       </c>
       <c r="J19" s="10"/>
@@ -1972,7 +1854,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="10"/>
@@ -1991,7 +1873,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="str">
-        <f t="shared" ref="I21:I37" si="2">"sub_"&amp;G21</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="10"/>
@@ -2252,7 +2134,6 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2271,63 +2152,26 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="U37" s="9"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H38" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G38)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G36)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L38:M38" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L36:M36" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M37 G2:H37 L2:L37" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17:M35 L2:L35 G2:H35" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J37" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J35" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2340,13 +2184,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A36</xm:sqref>
+          <xm:sqref>A2:A34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U37</xm:sqref>
+          <xm:sqref>U2:U35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A00B2-44B4-45FC-90B0-33703C92FB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92F2A7B-555A-42FD-866F-0D92BA3B2CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="42285" yWindow="2685" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="279">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -902,28 +902,22 @@
     <t>stg_pe_lu651</t>
   </si>
   <si>
-    <t>VM TEST</t>
-  </si>
-  <si>
-    <t>200.1.1.240</t>
-  </si>
-  <si>
-    <t>LU718</t>
-  </si>
-  <si>
-    <t>lu718</t>
-  </si>
-  <si>
-    <t>200.1.1.105</t>
+    <t>VSL-DEV-APT-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-apt-001</t>
+  </si>
+  <si>
+    <t>192.168.25.138</t>
+  </si>
+  <si>
+    <t>192.168.25.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1024,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1032,7 +1026,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,10 +1350,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,789 +1382,769 @@
     <col min="22" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="7" t="s">
         <v>275</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="9" t="str">
-        <f>"sub_"&amp;G2</f>
-        <v>sub_pe_lu650</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K35" si="0">"stg_"&amp;G2</f>
-        <v>stg_pe_lu650</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9">
-        <v>2048</v>
+        <v>276</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f t="shared" ref="I2:I17" si="0">"sub_"&amp;G2</f>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="9" t="str">
+        <f t="shared" ref="K2:K34" si="1">"stg_"&amp;G2</f>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8">
+        <v>20480</v>
       </c>
       <c r="O2" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" s="6">
         <v>1</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <v>50</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="U2" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="str">
-        <f t="shared" ref="I3:I18" si="1">"sub_"&amp;G3</f>
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="str">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="str">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="str">
         <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="str">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="str">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="str">
         <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="str">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="str">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="str">
         <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="str">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="str">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="str">
         <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="str">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="str">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="str">
         <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="str">
+        <f t="shared" ref="I18:I34" si="2">"sub_"&amp;G18</f>
         <v>sub_</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="U15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>sub_</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="str">
-        <f t="shared" ref="I19:I35" si="2">"sub_"&amp;G19</f>
-        <v>sub_</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>stg_</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="U19" s="9"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="str">
+      <c r="A19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="str">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="str">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="U22" s="9"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="str">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="U23" s="9"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="str">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="U24" s="9"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="str">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="U25" s="9"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="str">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="U26" s="9"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="str">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="U27" s="9"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9" t="str">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="U28" s="9"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9" t="str">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="U29" s="9"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="str">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="U28" s="8"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="U30" s="9"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9" t="str">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="U31" s="9"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9" t="str">
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="U32" s="9"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="str">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="U33" s="9"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9" t="str">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="U34" s="9"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="str">
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="str">
         <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="U35" s="9"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G36)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G35)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L36:M36" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L35:M35" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17:M35 L2:L35 G2:H35" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16:M34 G2:H34 L2:L34" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F34" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J35" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J34" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2184,13 +2157,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A34</xm:sqref>
+          <xm:sqref>A2:A33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U35</xm:sqref>
+          <xm:sqref>U2:U34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2223,20 +2196,20 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="11"/>
+      <c r="L2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2416,12 +2389,12 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2568,20 +2541,20 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -3026,16 +2999,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -6132,28 +6105,28 @@
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="E187" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F187" s="11" t="s">
+      <c r="F187" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G187" s="11" t="s">
+      <c r="G187" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H187" s="11" t="s">
+      <c r="H187" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I187" s="11" t="s">
+      <c r="I187" s="10" t="s">
         <v>264</v>
       </c>
     </row>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92F2A7B-555A-42FD-866F-0D92BA3B2CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98126F32-3D45-4B27-9027-202E4F523D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42285" yWindow="2685" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="300">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -912,6 +912,69 @@
   </si>
   <si>
     <t>192.168.25.1</t>
+  </si>
+  <si>
+    <t>VSL-DEV-ABN-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-abn-001</t>
+  </si>
+  <si>
+    <t>192.168.25.144</t>
+  </si>
+  <si>
+    <t>VSL-DEV-ABV-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-abv-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-ABD-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-ABA-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-MST-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-MSN-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-MSV-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-abd-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-aba-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-mst-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-msn-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-msv-001</t>
+  </si>
+  <si>
+    <t>192.168.25.189</t>
+  </si>
+  <si>
+    <t>192.168.25.188</t>
+  </si>
+  <si>
+    <t>192.168.25.161</t>
+  </si>
+  <si>
+    <t>192.168.25.152</t>
+  </si>
+  <si>
+    <t>192.168.25.151</t>
+  </si>
+  <si>
+    <t>192.168.25.150</t>
   </si>
 </sst>
 </file>
@@ -1352,8 +1415,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,142 +1576,459 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="N3" s="8">
+        <v>16384</v>
+      </c>
+      <c r="O3" s="6">
+        <v>4</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>50</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="9"/>
+        <f t="shared" ref="I4:I9" si="2">"sub_"&amp;G4</f>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="8"/>
+        <f t="shared" ref="K4:K9" si="3">"stg_"&amp;G4</f>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="N4" s="8">
+        <v>4096</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>50</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J5" s="9"/>
+        <f t="shared" si="2"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L5" s="8"/>
+        <f t="shared" si="3"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="N5" s="8">
+        <v>8192</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>50</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="S5" s="6">
+        <v>24</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J6" s="9"/>
+        <f t="shared" si="2"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L6" s="8"/>
+        <f t="shared" si="3"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="N6" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>50</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="S6" s="6">
+        <v>24</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J7" s="9"/>
+        <f t="shared" si="2"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L7" s="8"/>
+        <f t="shared" si="3"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="N7" s="8">
+        <v>20480</v>
+      </c>
+      <c r="O7" s="6">
+        <v>4</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>50</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="S7" s="6">
+        <v>24</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J8" s="9"/>
+        <f t="shared" si="2"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L8" s="8"/>
+        <f t="shared" si="3"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="N8" s="8">
+        <v>8192</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>50</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="S8" s="6">
+        <v>24</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J9" s="9"/>
+        <f t="shared" si="2"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L9" s="8"/>
+        <f t="shared" si="3"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="N9" s="8">
+        <v>4096</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>50</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="S9" s="6">
+        <v>24</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1808,7 +2188,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="str">
-        <f t="shared" ref="I18:I34" si="2">"sub_"&amp;G18</f>
+        <f t="shared" ref="I18:I34" si="4">"sub_"&amp;G18</f>
         <v>sub_</v>
       </c>
       <c r="J18" s="9"/>
@@ -1827,7 +2207,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="9"/>
@@ -1846,7 +2226,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="9"/>
@@ -1865,7 +2245,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="9"/>
@@ -1884,7 +2264,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="9"/>
@@ -1903,7 +2283,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J23" s="9"/>
@@ -1922,7 +2302,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J24" s="9"/>
@@ -1941,7 +2321,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J25" s="9"/>
@@ -1960,7 +2340,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="9"/>
@@ -1979,7 +2359,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="9"/>
@@ -1998,7 +2378,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J28" s="9"/>
@@ -2017,7 +2397,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="9"/>
@@ -2036,7 +2416,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="9"/>
@@ -2055,7 +2435,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="9"/>
@@ -2074,7 +2454,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="9"/>
@@ -2093,7 +2473,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="9"/>
@@ -2111,7 +2491,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J34" s="9"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98126F32-3D45-4B27-9027-202E4F523D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3408DB98-F74B-4138-8D82-4AA4C7961DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42285" yWindow="2685" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="280">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -902,79 +902,19 @@
     <t>stg_pe_lu651</t>
   </si>
   <si>
-    <t>VSL-DEV-APT-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-apt-001</t>
-  </si>
-  <si>
-    <t>192.168.25.138</t>
+    <t>VSL-PRO-IDM-001</t>
+  </si>
+  <si>
+    <t>IDM REPLICA</t>
+  </si>
+  <si>
+    <t>vsl-pro-idm-001</t>
+  </si>
+  <si>
+    <t>192.168.25.28</t>
   </si>
   <si>
     <t>192.168.25.1</t>
-  </si>
-  <si>
-    <t>VSL-DEV-ABN-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-abn-001</t>
-  </si>
-  <si>
-    <t>192.168.25.144</t>
-  </si>
-  <si>
-    <t>VSL-DEV-ABV-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-abv-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-ABD-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-ABA-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-MST-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-MSN-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-MSV-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-abd-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-aba-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-mst-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-msn-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-msv-001</t>
-  </si>
-  <si>
-    <t>192.168.25.189</t>
-  </si>
-  <si>
-    <t>192.168.25.188</t>
-  </si>
-  <si>
-    <t>192.168.25.161</t>
-  </si>
-  <si>
-    <t>192.168.25.152</t>
-  </si>
-  <si>
-    <t>192.168.25.151</t>
-  </si>
-  <si>
-    <t>192.168.25.150</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,10 +1461,10 @@
         <v>275</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>18</v>
@@ -1536,14 +1476,14 @@
         <v>19</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f t="shared" ref="I2:I17" si="0">"sub_"&amp;G2</f>
+        <f t="shared" ref="I2:I10" si="0">"sub_"&amp;G2</f>
         <v>sub_pe_lu651</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>245</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K34" si="1">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K27" si="1">"stg_"&amp;G2</f>
         <v>stg_pe_lu651</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1551,7 +1491,7 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8">
-        <v>20480</v>
+        <v>8192</v>
       </c>
       <c r="O2" s="6">
         <v>4</v>
@@ -1563,472 +1503,150 @@
         <v>50</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>245</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8">
-        <v>16384</v>
-      </c>
-      <c r="O3" s="6">
-        <v>4</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>50</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I9" si="2">"sub_"&amp;G4</f>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>245</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K9" si="3">"stg_"&amp;G4</f>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>4096</v>
-      </c>
-      <c r="O4" s="6">
-        <v>2</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>50</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="S4" s="6">
-        <v>24</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>245</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8">
-        <v>8192</v>
-      </c>
-      <c r="O5" s="6">
-        <v>2</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>50</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="S5" s="6">
-        <v>24</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>245</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>50</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="S6" s="6">
-        <v>24</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>245</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8">
-        <v>20480</v>
-      </c>
-      <c r="O7" s="6">
-        <v>4</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>50</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="S7" s="6">
-        <v>24</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>245</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J8" s="9"/>
       <c r="K8" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8">
-        <v>8192</v>
-      </c>
-      <c r="O8" s="6">
-        <v>4</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>50</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="S8" s="6">
-        <v>24</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>245</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8">
-        <v>4096</v>
-      </c>
-      <c r="O9" s="6">
-        <v>2</v>
-      </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>50</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="S9" s="6">
-        <v>24</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -2055,7 +1673,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I11:I27" si="2">"sub_"&amp;G11</f>
         <v>sub_</v>
       </c>
       <c r="J11" s="9"/>
@@ -2074,7 +1692,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="9"/>
@@ -2093,7 +1711,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="9"/>
@@ -2112,7 +1730,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="9"/>
@@ -2131,7 +1749,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="9"/>
@@ -2150,7 +1768,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="9"/>
@@ -2169,7 +1787,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="9"/>
@@ -2188,7 +1806,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="str">
-        <f t="shared" ref="I18:I34" si="4">"sub_"&amp;G18</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="9"/>
@@ -2207,7 +1825,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="9"/>
@@ -2226,7 +1844,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="9"/>
@@ -2245,7 +1863,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="9"/>
@@ -2264,7 +1882,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="9"/>
@@ -2283,7 +1901,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J23" s="9"/>
@@ -2302,7 +1920,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J24" s="9"/>
@@ -2321,7 +1939,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J25" s="9"/>
@@ -2340,7 +1958,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="9"/>
@@ -2354,12 +1972,11 @@
       <c r="U26" s="8"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="9"/>
@@ -2373,158 +1990,26 @@
       <c r="U27" s="8"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="U28" s="8"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="U29" s="8"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="U30" s="8"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="U31" s="8"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="U32" s="8"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="U33" s="8"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="U34" s="8"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G35)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G28)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L35:M35" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L28:M28" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16:M34 G2:H34 L2:L34" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M27 L2:L27 G2:H27" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F34" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F27" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J34" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J27" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2537,13 +2022,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A33</xm:sqref>
+          <xm:sqref>A2:A26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U34</xm:sqref>
+          <xm:sqref>U2:U27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3408DB98-F74B-4138-8D82-4AA4C7961DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FE1CE6-EC46-4CB2-BBAB-50026460A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="4905" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="285">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,13 +915,28 @@
   </si>
   <si>
     <t>192.168.25.1</t>
+  </si>
+  <si>
+    <t>vsl-pro-wik-001</t>
+  </si>
+  <si>
+    <t>VSL-PRO-WIK-001</t>
+  </si>
+  <si>
+    <t>WIKI</t>
+  </si>
+  <si>
+    <t>192.168.42.165</t>
+  </si>
+  <si>
+    <t>192.168.42.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +982,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF353539"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1021,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1038,6 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,8 +1377,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,24 +1537,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>sub_pe_lu650</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>stg_pe_lu650</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="N3" s="8">
+        <v>4096</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FE1CE6-EC46-4CB2-BBAB-50026460A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B081BB-BEA9-4746-B1E6-7A36A131F458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -926,10 +926,10 @@
     <t>WIKI</t>
   </si>
   <si>
-    <t>192.168.42.165</t>
-  </si>
-  <si>
     <t>192.168.42.1</t>
+  </si>
+  <si>
+    <t>192.168.42.166</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,13 +1590,13 @@
         <v>100</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S3" s="6">
         <v>24</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>17</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B081BB-BEA9-4746-B1E6-7A36A131F458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DFDF78-1D73-4416-BB57-1526A555E2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="40245" yWindow="1995" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="289">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -930,6 +930,18 @@
   </si>
   <si>
     <t>192.168.42.166</t>
+  </si>
+  <si>
+    <t>VSL-DEV-KCI-001</t>
+  </si>
+  <si>
+    <t>KEYCLOAK</t>
+  </si>
+  <si>
+    <t>192.168.42.168</t>
+  </si>
+  <si>
+    <t>vsl-dev-kci-001</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1389,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,24 +1614,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="9"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="8"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="N4" s="8">
+        <v>4096</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>100</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DFDF78-1D73-4416-BB57-1526A555E2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D6C6F4-6D5B-4C01-AF98-C9E0D1A0F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40245" yWindow="1995" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="280">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,40 +915,13 @@
   </si>
   <si>
     <t>192.168.25.1</t>
-  </si>
-  <si>
-    <t>vsl-pro-wik-001</t>
-  </si>
-  <si>
-    <t>VSL-PRO-WIK-001</t>
-  </si>
-  <si>
-    <t>WIKI</t>
-  </si>
-  <si>
-    <t>192.168.42.1</t>
-  </si>
-  <si>
-    <t>192.168.42.166</t>
-  </si>
-  <si>
-    <t>VSL-DEV-KCI-001</t>
-  </si>
-  <si>
-    <t>KEYCLOAK</t>
-  </si>
-  <si>
-    <t>192.168.42.168</t>
-  </si>
-  <si>
-    <t>vsl-dev-kci-001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,12 +967,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF353539"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1054,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1071,7 +1038,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,14 +1476,14 @@
         <v>19</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f t="shared" ref="I2:I10" si="0">"sub_"&amp;G2</f>
+        <f t="shared" ref="I2:I8" si="0">"sub_"&amp;G2</f>
         <v>sub_pe_lu651</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>245</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K27" si="1">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K25" si="1">"stg_"&amp;G2</f>
         <v>stg_pe_lu651</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1549,135 +1515,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_pe_lu650</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>191</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_pe_lu650</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>219</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8">
-        <v>4096</v>
-      </c>
-      <c r="O3" s="6">
-        <v>2</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>100</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="N3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>4096</v>
-      </c>
-      <c r="O4" s="6">
-        <v>2</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>100</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="S4" s="6">
-        <v>24</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1761,7 +1635,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I9:I25" si="2">"sub_"&amp;G9</f>
         <v>sub_</v>
       </c>
       <c r="J9" s="9"/>
@@ -1780,7 +1654,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="9"/>
@@ -1799,7 +1673,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="str">
-        <f t="shared" ref="I11:I27" si="2">"sub_"&amp;G11</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="9"/>
@@ -2060,7 +1934,6 @@
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2079,63 +1952,26 @@
       <c r="U25" s="8"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="U27" s="8"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G28)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G26)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L28:M28" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L26:M26" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M27 L2:L27 G2:H27" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M25 G2:H25 L2:L25" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F27" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J27" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J25" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2148,13 +1984,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A26</xm:sqref>
+          <xm:sqref>A2:A24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U27</xm:sqref>
+          <xm:sqref>U2:U25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D6C6F4-6D5B-4C01-AF98-C9E0D1A0F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA8174-32EB-4FE4-BB89-403CC01E37CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="285">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,6 +915,21 @@
   </si>
   <si>
     <t>192.168.25.1</t>
+  </si>
+  <si>
+    <t>RH-TESTSERVER-JH</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>rh-testserver-jh</t>
+  </si>
+  <si>
+    <t>192.168.128.98</t>
+  </si>
+  <si>
+    <t>192.168.128.1</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1371,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,23 +1531,69 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="N3" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>20</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA8174-32EB-4FE4-BB89-403CC01E37CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62833FB9-C2FF-4767-BA96-653C6674527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="280">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -900,21 +900,6 @@
   </si>
   <si>
     <t>stg_pe_lu651</t>
-  </si>
-  <si>
-    <t>VSL-PRO-IDM-001</t>
-  </si>
-  <si>
-    <t>IDM REPLICA</t>
-  </si>
-  <si>
-    <t>vsl-pro-idm-001</t>
-  </si>
-  <si>
-    <t>192.168.25.28</t>
-  </si>
-  <si>
-    <t>192.168.25.1</t>
   </si>
   <si>
     <t>RH-TESTSERVER-JH</t>
@@ -1368,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,14 +1476,14 @@
         <v>19</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f t="shared" ref="I2:I8" si="0">"sub_"&amp;G2</f>
+        <f t="shared" ref="I2:I7" si="0">"sub_"&amp;G2</f>
         <v>sub_pe_lu651</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>245</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K25" si="1">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K24" si="1">"stg_"&amp;G2</f>
         <v>stg_pe_lu651</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1506,16 +1491,16 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="O2" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="6">
         <v>1</v>
       </c>
       <c r="Q2" s="8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>278</v>
@@ -1531,69 +1516,23 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>245</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O3" s="6">
-        <v>2</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>20</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1677,7 +1616,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I8:I24" si="2">"sub_"&amp;G8</f>
         <v>sub_</v>
       </c>
       <c r="J8" s="9"/>
@@ -1696,7 +1635,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="str">
-        <f t="shared" ref="I9:I25" si="2">"sub_"&amp;G9</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="9"/>
@@ -1976,7 +1915,6 @@
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1995,44 +1933,26 @@
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G26)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G25)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L26:M26" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L25:M25" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M25 G2:H25 L2:L25" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M24 L2:L24 G2:H24" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J25" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J24" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2045,13 +1965,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A24</xm:sqref>
+          <xm:sqref>A2:A23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U25</xm:sqref>
+          <xm:sqref>U2:U24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62833FB9-C2FF-4767-BA96-653C6674527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30515141-1AED-4336-B3D3-4EE752247D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1480,7 @@
         <v>sub_pe_lu651</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="K2" s="9" t="str">
         <f t="shared" ref="K2:K24" si="1">"stg_"&amp;G2</f>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30515141-1AED-4336-B3D3-4EE752247D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05E595-F3F8-4908-9E7A-61C32342CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="291">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -902,19 +902,52 @@
     <t>stg_pe_lu651</t>
   </si>
   <si>
-    <t>RH-TESTSERVER-JH</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>rh-testserver-jh</t>
-  </si>
-  <si>
-    <t>192.168.128.98</t>
-  </si>
-  <si>
-    <t>192.168.128.1</t>
+    <t>VSL-DEV-RPI-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-rpi-001</t>
+  </si>
+  <si>
+    <t>192.168.42.174</t>
+  </si>
+  <si>
+    <t>192.168.42.1</t>
+  </si>
+  <si>
+    <t>VSL-DEV-ATQ-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-atq-001</t>
+  </si>
+  <si>
+    <t>192.168.42.175</t>
+  </si>
+  <si>
+    <t>VSL-DEV-ALT-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-ALN-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-EPT-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-alt-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-aln-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-ept-001</t>
+  </si>
+  <si>
+    <t>192.168.42.176</t>
+  </si>
+  <si>
+    <t>192.168.42.177</t>
+  </si>
+  <si>
+    <t>192.168.42.178</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1389,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,10 +1494,10 @@
         <v>275</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>18</v>
@@ -1480,7 +1513,7 @@
         <v>sub_pe_lu651</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K2" s="9" t="str">
         <f t="shared" ref="K2:K24" si="1">"stg_"&amp;G2</f>
@@ -1491,7 +1524,7 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="O2" s="6">
         <v>2</v>
@@ -1500,96 +1533,280 @@
         <v>1</v>
       </c>
       <c r="Q2" s="8">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="N3" s="8">
+        <v>4096</v>
+      </c>
+      <c r="O3" s="6">
+        <v>4</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="9"/>
+        <f t="shared" ref="I4:I5" si="2">"sub_"&amp;G4</f>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="8"/>
+        <f t="shared" ref="K4:K5" si="3">"stg_"&amp;G4</f>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="N4" s="8">
+        <v>4096</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>100</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J5" s="9"/>
+        <f t="shared" si="2"/>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L5" s="8"/>
+        <f t="shared" si="3"/>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="N5" s="8">
+        <v>8192</v>
+      </c>
+      <c r="O5" s="6">
+        <v>4</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>100</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="S5" s="6">
+        <v>24</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J6" s="9"/>
+        <f t="shared" ref="I6" si="4">"sub_"&amp;G6</f>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L6" s="8"/>
+        <f t="shared" ref="K6" si="5">"stg_"&amp;G6</f>
+        <v>stg_pe_lu651</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="N6" s="8">
+        <v>4096</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>100</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="S6" s="6">
+        <v>24</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -1616,7 +1833,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="str">
-        <f t="shared" ref="I8:I24" si="2">"sub_"&amp;G8</f>
+        <f t="shared" ref="I8:I24" si="6">"sub_"&amp;G8</f>
         <v>sub_</v>
       </c>
       <c r="J8" s="9"/>
@@ -1635,7 +1852,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="9"/>
@@ -1654,7 +1871,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="9"/>
@@ -1673,7 +1890,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="9"/>
@@ -1692,7 +1909,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="9"/>
@@ -1711,7 +1928,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="9"/>
@@ -1730,7 +1947,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="9"/>
@@ -1749,7 +1966,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="9"/>
@@ -1768,7 +1985,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="9"/>
@@ -1787,7 +2004,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="9"/>
@@ -1806,7 +2023,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="9"/>
@@ -1825,7 +2042,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="9"/>
@@ -1844,7 +2061,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="9"/>
@@ -1863,7 +2080,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="9"/>
@@ -1882,7 +2099,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="9"/>
@@ -1901,7 +2118,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J23" s="9"/>
@@ -1919,7 +2136,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sub_</v>
       </c>
       <c r="J24" s="9"/>
@@ -1946,7 +2163,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L25:M25" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M24 L2:L24 G2:H24" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24 L2:L24 M7:M24" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05E595-F3F8-4908-9E7A-61C32342CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC89B5F8-4DA3-4DF7-B727-CD14E0E56DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="280">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -902,52 +902,19 @@
     <t>stg_pe_lu651</t>
   </si>
   <si>
-    <t>VSL-DEV-RPI-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-rpi-001</t>
-  </si>
-  <si>
-    <t>192.168.42.174</t>
-  </si>
-  <si>
-    <t>192.168.42.1</t>
-  </si>
-  <si>
-    <t>VSL-DEV-ATQ-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-atq-001</t>
-  </si>
-  <si>
-    <t>192.168.42.175</t>
-  </si>
-  <si>
-    <t>VSL-DEV-ALT-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-ALN-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-EPT-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-alt-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-aln-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-ept-001</t>
-  </si>
-  <si>
-    <t>192.168.42.176</t>
-  </si>
-  <si>
-    <t>192.168.42.177</t>
-  </si>
-  <si>
-    <t>192.168.42.178</t>
+    <t>LU686</t>
+  </si>
+  <si>
+    <t>lu686</t>
+  </si>
+  <si>
+    <t>/DMZ</t>
+  </si>
+  <si>
+    <t>172.22.160.2</t>
+  </si>
+  <si>
+    <t>172.22.160.1</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1452,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>275</v>
@@ -1500,29 +1467,31 @@
         <v>276</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f t="shared" ref="I2:I7" si="0">"sub_"&amp;G2</f>
-        <v>sub_pe_lu651</v>
+        <f t="shared" ref="I2:I3" si="0">"sub_"&amp;G2</f>
+        <v>sub_nut-dmz-04</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K24" si="1">"stg_"&amp;G2</f>
-        <v>stg_pe_lu651</v>
+        <f t="shared" ref="K2:K20" si="1">"stg_"&amp;G2</f>
+        <v>stg_nut-dmz-04</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="N2" s="8">
         <v>4096</v>
       </c>
@@ -1536,277 +1505,93 @@
         <v>100</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8">
-        <v>4096</v>
-      </c>
-      <c r="O3" s="6">
-        <v>4</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>100</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I5" si="2">"sub_"&amp;G4</f>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>207</v>
-      </c>
+        <f t="shared" ref="I4:I20" si="2">"sub_"&amp;G4</f>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K5" si="3">"stg_"&amp;G4</f>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>4096</v>
-      </c>
-      <c r="O4" s="6">
-        <v>2</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>100</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="S4" s="6">
-        <v>24</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8">
-        <v>8192</v>
-      </c>
-      <c r="O5" s="6">
-        <v>4</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>100</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="S5" s="6">
-        <v>24</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="8" t="str">
-        <f t="shared" ref="I6" si="4">"sub_"&amp;G6</f>
-        <v>sub_pe_lu651</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>207</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>sub_</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="9" t="str">
-        <f t="shared" ref="K6" si="5">"stg_"&amp;G6</f>
-        <v>stg_pe_lu651</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>233</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
+      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8">
-        <v>4096</v>
-      </c>
-      <c r="O6" s="6">
-        <v>4</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>100</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="S6" s="6">
-        <v>24</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -1814,7 +1599,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J7" s="9"/>
@@ -1833,7 +1618,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="str">
-        <f t="shared" ref="I8:I24" si="6">"sub_"&amp;G8</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J8" s="9"/>
@@ -1852,7 +1637,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="9"/>
@@ -1871,7 +1656,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="9"/>
@@ -1890,7 +1675,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="9"/>
@@ -1909,7 +1694,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="9"/>
@@ -1928,7 +1713,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="9"/>
@@ -1947,7 +1732,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="9"/>
@@ -1966,7 +1751,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="9"/>
@@ -1985,7 +1770,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="9"/>
@@ -2004,7 +1789,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="9"/>
@@ -2023,7 +1808,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="9"/>
@@ -2042,7 +1827,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="9"/>
@@ -2056,12 +1841,11 @@
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="9"/>
@@ -2075,101 +1859,26 @@
       <c r="U20" s="8"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>sub_</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="U21" s="8"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>sub_</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="U22" s="8"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>sub_</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>sub_</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G25)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G21)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L25:M25" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:M21" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24 L2:L24 M7:M24" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M20 G2:H20 L2:L20" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J24" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J20" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2182,13 +1891,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A23</xm:sqref>
+          <xm:sqref>A2:A19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U24</xm:sqref>
+          <xm:sqref>U2:U20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC89B5F8-4DA3-4DF7-B727-CD14E0E56DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282963F7-93BF-4350-8A25-6AACFB19E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -902,26 +902,26 @@
     <t>stg_pe_lu651</t>
   </si>
   <si>
-    <t>LU686</t>
-  </si>
-  <si>
-    <t>lu686</t>
-  </si>
-  <si>
-    <t>/DMZ</t>
-  </si>
-  <si>
-    <t>172.22.160.2</t>
-  </si>
-  <si>
-    <t>172.22.160.1</t>
+    <t>vsl-pro-atq-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.22.148.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.22.148.1 </t>
+  </si>
+  <si>
+    <t>/DMZ/Tinqin/Servers</t>
+  </si>
+  <si>
+    <t>VSL-PRO-ATQ-001_BKP3.1_D_PRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +967,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF353539"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1021,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1038,6 +1044,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,13 +1363,13 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -1450,21 +1457,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -1480,23 +1487,23 @@
         <v>sub_nut-dmz-04</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K2" s="9" t="str">
         <f t="shared" ref="K2:K20" si="1">"stg_"&amp;G2</f>
         <v>stg_nut-dmz-04</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N2" s="8">
-        <v>4096</v>
+        <v>24576</v>
       </c>
       <c r="O2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" s="6">
         <v>1</v>
@@ -1504,14 +1511,14 @@
       <c r="Q2" s="8">
         <v>100</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>278</v>
+      <c r="R2" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>279</v>
+      <c r="T2" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>17</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282963F7-93BF-4350-8A25-6AACFB19E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C500B14C-5761-4E1F-9CED-22EC74A1C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -914,7 +914,7 @@
     <t>/DMZ/Tinqin/Servers</t>
   </si>
   <si>
-    <t>VSL-PRO-ATQ-001_BKP3.1_D_PRO</t>
+    <t>VSL-PRO-ATQ-001_BKP_D_PRO</t>
   </si>
 </sst>
 </file>
@@ -1362,16 +1362,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="6" bestFit="1" customWidth="1"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C500B14C-5761-4E1F-9CED-22EC74A1C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4041E-D786-4562-8718-6A009F596073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -45,16 +45,16 @@
     <definedName name="stg_nut_dmz_08">params!$M$47:$M$62</definedName>
     <definedName name="stg_pe_lu650">params!$B$47:$B$62</definedName>
     <definedName name="stg_pe_lu651">params!$D$47:$D$62</definedName>
-    <definedName name="sub_nut_dmz_01">params!$B$69:$B$187</definedName>
-    <definedName name="sub_nut_dmz_02">params!$C$69:$C$187</definedName>
-    <definedName name="sub_nut_dmz_03">params!$D$69:$D$187</definedName>
-    <definedName name="sub_nut_dmz_04">params!$E$69:$E$187</definedName>
-    <definedName name="sub_nut_dmz_05">params!$F$69:$F$187</definedName>
-    <definedName name="sub_nut_dmz_06">params!$G$69:$G$187</definedName>
-    <definedName name="sub_nut_dmz_07">params!$H$69:$H$187</definedName>
-    <definedName name="sub_nut_dmz_08">params!$I$69:$I$187</definedName>
+    <definedName name="sub_nut_dmz_01">params!$B$69:$B$188</definedName>
+    <definedName name="sub_nut_dmz_02">params!$C$69:$C$188</definedName>
+    <definedName name="sub_nut_dmz_03">params!$D$69:$D$188</definedName>
+    <definedName name="sub_nut_dmz_04">params!$E$69:$E$188</definedName>
+    <definedName name="sub_nut_dmz_05">params!$F$69:$F$188</definedName>
+    <definedName name="sub_nut_dmz_06">params!$G$69:$G$188</definedName>
+    <definedName name="sub_nut_dmz_07">params!$H$69:$H$188</definedName>
+    <definedName name="sub_nut_dmz_08">params!$I$69:$I$188</definedName>
     <definedName name="sub_pe_lu650">params!$B$25:$B$41</definedName>
-    <definedName name="sub_pe_lu651">params!$D$25:$D$41</definedName>
+    <definedName name="sub_pe_lu651">params!$D$25:$D$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="286">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,6 +915,24 @@
   </si>
   <si>
     <t>VSL-PRO-ATQ-001_BKP_D_PRO</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN48"]</t>
+  </si>
+  <si>
+    <t>PRO_ANALYTICS_EXT</t>
+  </si>
+  <si>
+    <t>VSL-POC-MMO-001</t>
+  </si>
+  <si>
+    <t>vsl-poc-mmo-001</t>
+  </si>
+  <si>
+    <t>172.23.86.1</t>
+  </si>
+  <si>
+    <t>172.23.86.254</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1059,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,8 +1380,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,13 +1478,13 @@
       <c r="A2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>279</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1510,13 +1528,13 @@
       <c r="Q2" s="8">
         <v>100</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>276</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>277</v>
       </c>
       <c r="U2" s="8" t="s">
@@ -1524,23 +1542,69 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>sub_nut-dmz-03</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>stg_nut-dmz-03</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="N3" s="8">
+        <v>4096</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1914,10 +1978,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40802AC-BF16-4F74-A64C-0EB8273AF630}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:O187"/>
+  <dimension ref="B2:O188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="C129" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,20 +2000,20 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2129,12 +2193,12 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2280,21 +2344,26 @@
         <v>212</v>
       </c>
     </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>280</v>
+      </c>
+    </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2739,16 +2808,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -5868,6 +5937,32 @@
       </c>
       <c r="I187" s="10" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4041E-D786-4562-8718-6A009F596073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D8F9A-3CA7-4E2A-BCF1-54243573BDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -45,14 +45,14 @@
     <definedName name="stg_nut_dmz_08">params!$M$47:$M$62</definedName>
     <definedName name="stg_pe_lu650">params!$B$47:$B$62</definedName>
     <definedName name="stg_pe_lu651">params!$D$47:$D$62</definedName>
-    <definedName name="sub_nut_dmz_01">params!$B$69:$B$188</definedName>
-    <definedName name="sub_nut_dmz_02">params!$C$69:$C$188</definedName>
-    <definedName name="sub_nut_dmz_03">params!$D$69:$D$188</definedName>
-    <definedName name="sub_nut_dmz_04">params!$E$69:$E$188</definedName>
-    <definedName name="sub_nut_dmz_05">params!$F$69:$F$188</definedName>
-    <definedName name="sub_nut_dmz_06">params!$G$69:$G$188</definedName>
-    <definedName name="sub_nut_dmz_07">params!$H$69:$H$188</definedName>
-    <definedName name="sub_nut_dmz_08">params!$I$69:$I$188</definedName>
+    <definedName name="sub_nut_dmz_01">params!$B$69:$B$190</definedName>
+    <definedName name="sub_nut_dmz_02">params!$C$69:$C$190</definedName>
+    <definedName name="sub_nut_dmz_03">params!$D$69:$D$190</definedName>
+    <definedName name="sub_nut_dmz_04">params!$E$69:$E$190</definedName>
+    <definedName name="sub_nut_dmz_05">params!$F$69:$F$190</definedName>
+    <definedName name="sub_nut_dmz_06">params!$G$69:$G$190</definedName>
+    <definedName name="sub_nut_dmz_07">params!$H$69:$H$190</definedName>
+    <definedName name="sub_nut_dmz_08">params!$I$69:$I$190</definedName>
     <definedName name="sub_pe_lu650">params!$B$25:$B$41</definedName>
     <definedName name="sub_pe_lu651">params!$D$25:$D$42</definedName>
   </definedNames>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="297">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -933,13 +933,46 @@
   </si>
   <si>
     <t>172.23.86.254</t>
+  </si>
+  <si>
+    <t>PRO_PUBLIC_SITE_EXT</t>
+  </si>
+  <si>
+    <t>REC_PUBLIC_SITE_EXT</t>
+  </si>
+  <si>
+    <t>VSL-PRO-WWW-001 </t>
+  </si>
+  <si>
+    <t>vsl-pro-www-001</t>
+  </si>
+  <si>
+    <t>172.23.87.1</t>
+  </si>
+  <si>
+    <t>172.23.87.254</t>
+  </si>
+  <si>
+    <t>172.25.87.1</t>
+  </si>
+  <si>
+    <t>/DMZ/DMZEXT/Production</t>
+  </si>
+  <si>
+    <t>/DMZ/DMZEXT/Recette</t>
+  </si>
+  <si>
+    <t>VSL-REC-WWW-001 </t>
+  </si>
+  <si>
+    <t>vsl-rec-www-001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +1022,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF353539"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -1045,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1063,6 +1102,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,8 +1421,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1430,7 @@
     <col min="1" max="1" width="14.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="6" customWidth="1"/>
@@ -1397,7 +1438,7 @@
     <col min="10" max="10" width="40.140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="41.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="6"/>
     <col min="16" max="16" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
@@ -1405,7 +1446,7 @@
     <col min="18" max="18" width="17.42578125" style="6" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="6" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -1606,43 +1647,139 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I4" s="8" t="str">
         <f t="shared" ref="I4:I20" si="2">"sub_"&amp;G4</f>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="9"/>
+        <v>sub_nut-dmz-05</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+        <v>stg_nut-dmz-05</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N4" s="8">
+        <v>8192</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>100</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I5" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J5" s="9"/>
+        <v>sub_nut-dmz-06</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="K5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="U5" s="8"/>
+        <v>stg_nut-dmz-06</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N5" s="8">
+        <v>8192</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>100</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="S5" s="6">
+        <v>24</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -1939,10 +2076,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
       <formula1>INDIRECT(G21)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:M21" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M20 G2:H20 L2:L20" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L20 G2:H20" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
@@ -1978,10 +2115,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40802AC-BF16-4F74-A64C-0EB8273AF630}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:O188"/>
+  <dimension ref="B2:O190"/>
   <sheetViews>
-    <sheetView topLeftCell="C129" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5965,6 +6102,52 @@
         <v>281</v>
       </c>
     </row>
+    <row r="189" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C189" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C190" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F190" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H190" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B67:I67"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D8F9A-3CA7-4E2A-BCF1-54243573BDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255E1D2-7113-4F53-9B5B-F723109E78D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -941,9 +941,6 @@
     <t>REC_PUBLIC_SITE_EXT</t>
   </si>
   <si>
-    <t>VSL-PRO-WWW-001 </t>
-  </si>
-  <si>
     <t>vsl-pro-www-001</t>
   </si>
   <si>
@@ -962,10 +959,13 @@
     <t>/DMZ/DMZEXT/Recette</t>
   </si>
   <si>
-    <t>VSL-REC-WWW-001 </t>
-  </si>
-  <si>
     <t>vsl-rec-www-001</t>
+  </si>
+  <si>
+    <t>VSL-PRO-WWW-001</t>
+  </si>
+  <si>
+    <t>VSL-REC-WWW-001</t>
   </si>
 </sst>
 </file>
@@ -1421,8 +1421,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,16 +1652,16 @@
         <v>266</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>29</v>
@@ -1687,7 +1687,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N4" s="8">
         <v>8192</v>
@@ -1702,13 +1702,13 @@
         <v>100</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S4" s="6">
         <v>24</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>36</v>
@@ -1719,16 +1719,16 @@
         <v>266</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>30</v>
@@ -1754,7 +1754,7 @@
         <v>60</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N5" s="8">
         <v>8192</v>
@@ -1769,13 +1769,13 @@
         <v>100</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S5" s="6">
         <v>24</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>260</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255E1D2-7113-4F53-9B5B-F723109E78D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF95537-1F07-4B72-9F06-87D38315FD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -953,12 +953,6 @@
     <t>172.25.87.1</t>
   </si>
   <si>
-    <t>/DMZ/DMZEXT/Production</t>
-  </si>
-  <si>
-    <t>/DMZ/DMZEXT/Recette</t>
-  </si>
-  <si>
     <t>vsl-rec-www-001</t>
   </si>
   <si>
@@ -966,6 +960,12 @@
   </si>
   <si>
     <t>VSL-REC-WWW-001</t>
+  </si>
+  <si>
+    <t>/DMZEXT/Production</t>
+  </si>
+  <si>
+    <t>/DMZEXT/Recette</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,13 +1652,13 @@
         <v>266</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>288</v>
@@ -1687,7 +1687,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N4" s="8">
         <v>8192</v>
@@ -1719,16 +1719,16 @@
         <v>266</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>30</v>
@@ -1754,7 +1754,7 @@
         <v>60</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N5" s="8">
         <v>8192</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF95537-1F07-4B72-9F06-87D38315FD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D5E43-5953-47C4-80ED-28ED12C7D4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="295">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -960,12 +960,6 @@
   </si>
   <si>
     <t>VSL-REC-WWW-001</t>
-  </si>
-  <si>
-    <t>/DMZEXT/Production</t>
-  </si>
-  <si>
-    <t>/DMZEXT/Recette</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1416,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,9 +1680,7 @@
       <c r="L4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>295</v>
-      </c>
+      <c r="M4" s="8"/>
       <c r="N4" s="8">
         <v>8192</v>
       </c>
@@ -1753,9 +1745,7 @@
       <c r="L5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>296</v>
-      </c>
+      <c r="M5" s="8"/>
       <c r="N5" s="8">
         <v>8192</v>
       </c>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D5E43-5953-47C4-80ED-28ED12C7D4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A466D8-8982-4A86-8CAD-FA3B1B454D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="296">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t>VSL-REC-WWW-001</t>
+  </si>
+  <si>
+    <t>172.25.87.254</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1419,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1768,7 @@
         <v>24</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>260</v>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A466D8-8982-4A86-8CAD-FA3B1B454D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975464C-1228-4764-956A-E9F3D824DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="292">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -941,22 +941,10 @@
     <t>REC_PUBLIC_SITE_EXT</t>
   </si>
   <si>
-    <t>vsl-pro-www-001</t>
-  </si>
-  <si>
-    <t>172.23.87.1</t>
-  </si>
-  <si>
-    <t>172.23.87.254</t>
-  </si>
-  <si>
     <t>172.25.87.1</t>
   </si>
   <si>
     <t>vsl-rec-www-001</t>
-  </si>
-  <si>
-    <t>VSL-PRO-WWW-001</t>
   </si>
   <si>
     <t>VSL-REC-WWW-001</t>
@@ -1416,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1533,7 @@
         <v>111</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K20" si="1">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K19" si="1">"stg_"&amp;G2</f>
         <v>stg_nut-dmz-04</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1649,39 +1637,39 @@
         <v>266</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I20" si="2">"sub_"&amp;G4</f>
-        <v>sub_nut-dmz-05</v>
+        <f t="shared" ref="I4:I19" si="2">"sub_"&amp;G4</f>
+        <v>sub_nut-dmz-06</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-05</v>
+        <v>stg_nut-dmz-06</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8">
@@ -1697,82 +1685,36 @@
         <v>100</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S4" s="6">
         <v>24</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>sub_nut-dmz-06</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>287</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-06</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8">
-        <v>8192</v>
-      </c>
-      <c r="O5" s="6">
-        <v>2</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>100</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="S5" s="6">
-        <v>24</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="N5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -2022,7 +1964,6 @@
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2041,44 +1982,26 @@
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G21)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G20)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L20 G2:H20" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H19 L2:L19" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J20" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J19" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2091,13 +2014,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A19</xm:sqref>
+          <xm:sqref>A2:A18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U20</xm:sqref>
+          <xm:sqref>U2:U19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975464C-1228-4764-956A-E9F3D824DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9ACD9D-E796-4337-8047-8A90033AE259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <definedName name="sub_nut_dmz_07">params!$H$69:$H$190</definedName>
     <definedName name="sub_nut_dmz_08">params!$I$69:$I$190</definedName>
     <definedName name="sub_pe_lu650">params!$B$25:$B$41</definedName>
-    <definedName name="sub_pe_lu651">params!$D$25:$D$42</definedName>
+    <definedName name="sub_pe_lu651">params!$D$25:$D$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="284">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -902,55 +902,31 @@
     <t>stg_pe_lu651</t>
   </si>
   <si>
-    <t>vsl-pro-atq-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.22.148.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.22.148.1 </t>
-  </si>
-  <si>
-    <t>/DMZ/Tinqin/Servers</t>
-  </si>
-  <si>
-    <t>VSL-PRO-ATQ-001_BKP_D_PRO</t>
-  </si>
-  <si>
     <t>var.ahv_651_network["VLAN48"]</t>
   </si>
   <si>
     <t>PRO_ANALYTICS_EXT</t>
   </si>
   <si>
-    <t>VSL-POC-MMO-001</t>
-  </si>
-  <si>
-    <t>vsl-poc-mmo-001</t>
-  </si>
-  <si>
-    <t>172.23.86.1</t>
-  </si>
-  <si>
-    <t>172.23.86.254</t>
-  </si>
-  <si>
     <t>PRO_PUBLIC_SITE_EXT</t>
   </si>
   <si>
     <t>REC_PUBLIC_SITE_EXT</t>
   </si>
   <si>
-    <t>172.25.87.1</t>
-  </si>
-  <si>
-    <t>vsl-rec-www-001</t>
-  </si>
-  <si>
-    <t>VSL-REC-WWW-001</t>
-  </si>
-  <si>
-    <t>172.25.87.254</t>
+    <t>var.ahv_651_network["521-REC_ESIGN_INT"]</t>
+  </si>
+  <si>
+    <t>VSL-TEST</t>
+  </si>
+  <si>
+    <t>vsltest</t>
+  </si>
+  <si>
+    <t>172.25.21.2</t>
+  </si>
+  <si>
+    <t>172.25.21.254</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1084,11 +1060,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,10 +1379,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,51 +1477,49 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f t="shared" ref="I2" si="0">"sub_"&amp;G2</f>
+        <v>sub_pe_lu651</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="8" t="str">
-        <f t="shared" ref="I2:I3" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K19" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-04</v>
+        <f t="shared" ref="K2:K17" si="1">"stg_"&amp;G2</f>
+        <v>stg_pe_lu651</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>278</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M2" s="8"/>
       <c r="N2" s="8">
-        <v>24576</v>
+        <v>2048</v>
       </c>
       <c r="O2" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" s="6">
         <v>1</v>
@@ -1555,147 +1528,55 @@
         <v>100</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_nut-dmz-03</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>281</v>
-      </c>
+        <f t="shared" ref="I3:I17" si="2">"sub_"&amp;G3</f>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-03</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8">
-        <v>4096</v>
-      </c>
-      <c r="O3" s="6">
-        <v>2</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>100</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="N3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I19" si="2">"sub_"&amp;G4</f>
-        <v>sub_nut-dmz-06</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>287</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-06</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>8192</v>
-      </c>
-      <c r="O4" s="6">
-        <v>2</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>100</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="S4" s="6">
-        <v>24</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="N4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1925,8 +1806,7 @@
       <c r="N16" s="8"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1944,64 +1824,27 @@
       <c r="N17" s="8"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
       <c r="H18" s="8"/>
-      <c r="I18" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G20)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G18)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H19 L2:L19" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17 G2:H17" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J19" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J17" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2014,13 +1857,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A18</xm:sqref>
+          <xm:sqref>A2:A16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U19</xm:sqref>
+          <xm:sqref>U2:U17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2033,8 +1876,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O190"/>
   <sheetViews>
-    <sheetView topLeftCell="C69" workbookViewId="0">
-      <selection activeCell="E198" sqref="E198"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,20 +1896,20 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2246,12 +2089,12 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2399,24 +2242,29 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2861,16 +2709,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -5994,74 +5842,74 @@
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C189" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E189" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F189" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="G189" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="H189" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="I189" s="13" t="s">
-        <v>286</v>
+      <c r="C189" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I189" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C190" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D190" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E190" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="F190" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="G190" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="H190" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="I190" s="13" t="s">
-        <v>287</v>
+      <c r="C190" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I190" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9ACD9D-E796-4337-8047-8A90033AE259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD25609-9D09-48F1-9AB6-F48B1B47BE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="288">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -917,16 +917,28 @@
     <t>var.ahv_651_network["521-REC_ESIGN_INT"]</t>
   </si>
   <si>
-    <t>VSL-TEST</t>
-  </si>
-  <si>
-    <t>vsltest</t>
-  </si>
-  <si>
-    <t>172.25.21.2</t>
-  </si>
-  <si>
-    <t>172.25.21.254</t>
+    <t>VSL-TST-AXW-004</t>
+  </si>
+  <si>
+    <t>vsl-tst-axw-004</t>
+  </si>
+  <si>
+    <t>192.168.42.185</t>
+  </si>
+  <si>
+    <t>192.168.42.1</t>
+  </si>
+  <si>
+    <t>VSL-TST-AXW-003</t>
+  </si>
+  <si>
+    <t>vsl-tst-axw-003</t>
+  </si>
+  <si>
+    <t>172.26.83.2</t>
+  </si>
+  <si>
+    <t>172.26.83.254</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1394,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1517,7 @@
         <v>sub_pe_lu651</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="K2" s="9" t="str">
         <f t="shared" ref="K2:K17" si="1">"stg_"&amp;G2</f>
@@ -1541,23 +1553,69 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I3" s="8" t="str">
         <f t="shared" ref="I3:I17" si="2">"sub_"&amp;G3</f>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="N3" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD25609-9D09-48F1-9AB6-F48B1B47BE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B76C8A-C648-4BDB-89BE-90BA8A318859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="284">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -915,18 +915,6 @@
   </si>
   <si>
     <t>var.ahv_651_network["521-REC_ESIGN_INT"]</t>
-  </si>
-  <si>
-    <t>VSL-TST-AXW-004</t>
-  </si>
-  <si>
-    <t>vsl-tst-axw-004</t>
-  </si>
-  <si>
-    <t>192.168.42.185</t>
-  </si>
-  <si>
-    <t>192.168.42.1</t>
   </si>
   <si>
     <t>VSL-TST-AXW-003</t>
@@ -945,7 +933,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,12 +979,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF353539"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1057,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1072,7 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1391,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,44 +1468,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>281</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f t="shared" ref="I2" si="0">"sub_"&amp;G2</f>
-        <v>sub_pe_lu651</v>
+        <f t="shared" ref="I2:I16" si="0">"sub_"&amp;G2</f>
+        <v>sub_nut-dmz-04</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K17" si="1">"stg_"&amp;G2</f>
-        <v>stg_pe_lu651</v>
+        <f t="shared" ref="K2:K16" si="1">"stg_"&amp;G2</f>
+        <v>stg_nut-dmz-04</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8">
@@ -1539,13 +1520,13 @@
       <c r="Q2" s="8">
         <v>100</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="6" t="s">
         <v>282</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="6" t="s">
         <v>283</v>
       </c>
       <c r="U2" s="8" t="s">
@@ -1553,69 +1534,23 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I17" si="2">"sub_"&amp;G3</f>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>262</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>100</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="S3" s="6">
-        <v>24</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1623,7 +1558,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J4" s="9"/>
@@ -1642,7 +1577,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J5" s="9"/>
@@ -1661,7 +1596,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J6" s="9"/>
@@ -1680,7 +1615,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J7" s="9"/>
@@ -1699,7 +1634,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J8" s="9"/>
@@ -1718,7 +1653,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="9"/>
@@ -1737,7 +1672,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="9"/>
@@ -1756,7 +1691,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="9"/>
@@ -1775,7 +1710,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="9"/>
@@ -1794,7 +1729,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="9"/>
@@ -1813,7 +1748,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="9"/>
@@ -1832,7 +1767,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="9"/>
@@ -1846,12 +1781,11 @@
       <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="9"/>
@@ -1864,45 +1798,27 @@
       <c r="N16" s="8"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H17" s="8"/>
-      <c r="I17" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="U17" s="8"/>
-    </row>
-    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="H18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G18)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G17)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17 G2:H17" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L16 G2:H16" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J17" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J16" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -1915,13 +1831,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A16</xm:sqref>
+          <xm:sqref>A2:A15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U17</xm:sqref>
+          <xm:sqref>U2:U16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1954,20 +1870,20 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="I2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2147,12 +2063,12 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2309,20 +2225,20 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2767,16 +2683,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -5925,48 +5841,48 @@
       </c>
     </row>
     <row r="189" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="D189" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E189" s="12" t="s">
+      <c r="E189" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="F189" s="12" t="s">
+      <c r="F189" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="G189" s="12" t="s">
+      <c r="G189" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="H189" s="12" t="s">
+      <c r="H189" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="I189" s="12" t="s">
+      <c r="I189" s="11" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="190" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C190" s="12" t="s">
+      <c r="C190" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D190" s="12" t="s">
+      <c r="D190" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E190" s="12" t="s">
+      <c r="E190" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="F190" s="12" t="s">
+      <c r="F190" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G190" s="12" t="s">
+      <c r="G190" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="H190" s="12" t="s">
+      <c r="H190" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="I190" s="12" t="s">
+      <c r="I190" s="11" t="s">
         <v>278</v>
       </c>
     </row>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B76C8A-C648-4BDB-89BE-90BA8A318859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7369F9-D4F2-4609-A217-04E1E32829B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -917,16 +917,16 @@
     <t>var.ahv_651_network["521-REC_ESIGN_INT"]</t>
   </si>
   <si>
-    <t>VSL-TST-AXW-003</t>
-  </si>
-  <si>
-    <t>vsl-tst-axw-003</t>
-  </si>
-  <si>
-    <t>172.26.83.2</t>
-  </si>
-  <si>
-    <t>172.26.83.254</t>
+    <t>VSL-PRO-SQU-001</t>
+  </si>
+  <si>
+    <t>vsl-pro-squ-001</t>
+  </si>
+  <si>
+    <t>172.22.108.50</t>
+  </si>
+  <si>
+    <t>172.22.108.1</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,27 +1485,27 @@
         <v>281</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2:I16" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-04</v>
+        <v>sub_nut-dmz-07</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="K2" s="9" t="str">
         <f t="shared" ref="K2:K16" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-04</v>
+        <v>stg_nut-dmz-07</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8">

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7369F9-D4F2-4609-A217-04E1E32829B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D764E8C4-60F3-42E7-A49C-4C0607B3A21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -45,14 +45,14 @@
     <definedName name="stg_nut_dmz_08">params!$M$47:$M$62</definedName>
     <definedName name="stg_pe_lu650">params!$B$47:$B$62</definedName>
     <definedName name="stg_pe_lu651">params!$D$47:$D$62</definedName>
-    <definedName name="sub_nut_dmz_01">params!$B$69:$B$190</definedName>
-    <definedName name="sub_nut_dmz_02">params!$C$69:$C$190</definedName>
-    <definedName name="sub_nut_dmz_03">params!$D$69:$D$190</definedName>
-    <definedName name="sub_nut_dmz_04">params!$E$69:$E$190</definedName>
-    <definedName name="sub_nut_dmz_05">params!$F$69:$F$190</definedName>
-    <definedName name="sub_nut_dmz_06">params!$G$69:$G$190</definedName>
-    <definedName name="sub_nut_dmz_07">params!$H$69:$H$190</definedName>
-    <definedName name="sub_nut_dmz_08">params!$I$69:$I$190</definedName>
+    <definedName name="sub_nut_dmz_01">params!$B$69:$B$192</definedName>
+    <definedName name="sub_nut_dmz_02">params!$C$69:$C$194</definedName>
+    <definedName name="sub_nut_dmz_03">params!$D$69:$D$194</definedName>
+    <definedName name="sub_nut_dmz_04">params!$E$69:$E$194</definedName>
+    <definedName name="sub_nut_dmz_05">params!$F$69:$F$194</definedName>
+    <definedName name="sub_nut_dmz_06">params!$G$69:$G$194</definedName>
+    <definedName name="sub_nut_dmz_07">params!$H$69:$H$194</definedName>
+    <definedName name="sub_nut_dmz_08">params!$I$69:$I$194</definedName>
     <definedName name="sub_pe_lu650">params!$B$25:$B$41</definedName>
     <definedName name="sub_pe_lu651">params!$D$25:$D$43</definedName>
   </definedNames>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="316">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -927,13 +927,109 @@
   </si>
   <si>
     <t>172.22.108.1</t>
+  </si>
+  <si>
+    <t>PRO_AUTH_EXT</t>
+  </si>
+  <si>
+    <t>PRO_AUTH_INT</t>
+  </si>
+  <si>
+    <t>REC_AUTH_EXT</t>
+  </si>
+  <si>
+    <t>REC_AUTH_INT</t>
+  </si>
+  <si>
+    <t>VSL-PRO-KCE-001</t>
+  </si>
+  <si>
+    <t>vsl-pro-kce-001</t>
+  </si>
+  <si>
+    <t>172.23.73.1</t>
+  </si>
+  <si>
+    <t>172.23.73.254</t>
+  </si>
+  <si>
+    <t>VSL-PRO-KCE-002</t>
+  </si>
+  <si>
+    <t>vsl-pro-kce-002</t>
+  </si>
+  <si>
+    <t>172.23.73.2</t>
+  </si>
+  <si>
+    <t>VSL-PRO-KCI-001</t>
+  </si>
+  <si>
+    <t>VSL-PRO-KCI-002</t>
+  </si>
+  <si>
+    <t>vsl-pro-kci-001</t>
+  </si>
+  <si>
+    <t>vsl-pro-kci-002</t>
+  </si>
+  <si>
+    <t>172.23.42.1</t>
+  </si>
+  <si>
+    <t>172.23.42.2</t>
+  </si>
+  <si>
+    <t>172.23.42.254</t>
+  </si>
+  <si>
+    <t>VSL-REC-KCE-001</t>
+  </si>
+  <si>
+    <t>VSL-REC-KCE-002</t>
+  </si>
+  <si>
+    <t>VSL-REC-KCI-001</t>
+  </si>
+  <si>
+    <t>VSL-REC-KCI-002</t>
+  </si>
+  <si>
+    <t>vsl-rec-kce-001</t>
+  </si>
+  <si>
+    <t>vsl-rec-kce-002</t>
+  </si>
+  <si>
+    <t>vsl-rec-kci-001</t>
+  </si>
+  <si>
+    <t>vsl-rec-kci-002</t>
+  </si>
+  <si>
+    <t>172.25.73.1</t>
+  </si>
+  <si>
+    <t>172.25.73.2</t>
+  </si>
+  <si>
+    <t>172.25.42.1</t>
+  </si>
+  <si>
+    <t>172.25.42.2</t>
+  </si>
+  <si>
+    <t>172.25.42.254</t>
+  </si>
+  <si>
+    <t>172.25.73.254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +1079,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF353539"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -1039,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1057,6 +1159,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,9 +1478,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1533,157 +1635,525 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>sub_nut-dmz-03</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>stg_nut-dmz-03</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="N3" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="S3" s="6">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="9"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="8"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="N4" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>100</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J5" s="9"/>
+        <v>sub_nut-dmz-03</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="K5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L5" s="8"/>
+        <v>stg_nut-dmz-03</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="N5" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>100</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="S5" s="6">
+        <v>24</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J6" s="9"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L6" s="8"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="N6" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>100</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="S6" s="6">
+        <v>24</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J7" s="9"/>
+        <v>sub_nut-dmz-03</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="K7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L7" s="8"/>
+        <v>stg_nut-dmz-03</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="N7" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>100</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="S7" s="6">
+        <v>24</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J8" s="9"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="K8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L8" s="8"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="U8" s="8"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="N8" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>100</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="S8" s="6">
+        <v>24</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J9" s="9"/>
+        <v>sub_nut-dmz-03</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="K9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L9" s="8"/>
+        <v>stg_nut-dmz-03</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="N9" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>100</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="S9" s="6">
+        <v>24</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>sub_nut-dmz-04</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="K10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L10" s="8"/>
+        <v>stg_nut-dmz-04</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="N10" s="8">
+        <v>2048</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>100</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="S10" s="6">
+        <v>24</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -1848,10 +2318,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40802AC-BF16-4F74-A64C-0EB8273AF630}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:O190"/>
+  <dimension ref="B2:O194"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D43"/>
+    <sheetView topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,6 +6311,9 @@
       </c>
     </row>
     <row r="189" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B189" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="C189" s="11" t="s">
         <v>277</v>
       </c>
@@ -5864,6 +6337,9 @@
       </c>
     </row>
     <row r="190" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B190" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="C190" s="11" t="s">
         <v>278</v>
       </c>
@@ -5884,6 +6360,104 @@
       </c>
       <c r="I190" s="11" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B191" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F191" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="I191" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="193" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C193" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C194" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D764E8C4-60F3-42E7-A49C-4C0607B3A21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B53E1E-B78C-45B8-BAE9-A9392E22724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="313">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -992,9 +992,6 @@
     <t>VSL-REC-KCI-001</t>
   </si>
   <si>
-    <t>VSL-REC-KCI-002</t>
-  </si>
-  <si>
     <t>vsl-rec-kce-001</t>
   </si>
   <si>
@@ -1004,9 +1001,6 @@
     <t>vsl-rec-kci-001</t>
   </si>
   <si>
-    <t>vsl-rec-kci-002</t>
-  </si>
-  <si>
     <t>172.25.73.1</t>
   </si>
   <si>
@@ -1014,9 +1008,6 @@
   </si>
   <si>
     <t>172.25.42.1</t>
-  </si>
-  <si>
-    <t>172.25.42.2</t>
   </si>
   <si>
     <t>172.25.42.254</t>
@@ -1476,9 +1467,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1596,14 +1589,14 @@
         <v>40</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f t="shared" ref="I2:I16" si="0">"sub_"&amp;G2</f>
+        <f t="shared" ref="I2:I15" si="0">"sub_"&amp;G2</f>
         <v>sub_nut-dmz-07</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>116</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K16" si="1">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K15" si="1">"stg_"&amp;G2</f>
         <v>stg_nut-dmz-07</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1909,7 +1902,7 @@
         <v>302</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>29</v>
@@ -1948,13 +1941,13 @@
         <v>100</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S7" s="6">
         <v>24</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="U7" s="8" t="s">
         <v>260</v>
@@ -1974,7 +1967,7 @@
         <v>303</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>30</v>
@@ -2013,13 +2006,13 @@
         <v>100</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S8" s="6">
         <v>24</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="U8" s="8" t="s">
         <v>260</v>
@@ -2039,7 +2032,7 @@
         <v>304</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>29</v>
@@ -2078,82 +2071,36 @@
         <v>100</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S9" s="6">
         <v>24</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="U9" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>41</v>
-      </c>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>287</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>100</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="S10" s="6">
-        <v>24</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="N10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -2232,7 +2179,6 @@
       <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2251,44 +2197,26 @@
       <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G17)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G16)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L16 G2:H16" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H15 L2:L15" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J16" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J15" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2301,13 +2229,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A15</xm:sqref>
+          <xm:sqref>A2:A14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U16</xm:sqref>
+          <xm:sqref>U2:U15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2320,7 +2248,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O194"/>
   <sheetViews>
-    <sheetView topLeftCell="C69" workbookViewId="0">
+    <sheetView topLeftCell="C153" workbookViewId="0">
       <selection activeCell="B68" sqref="B68:B192"/>
     </sheetView>
   </sheetViews>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B53E1E-B78C-45B8-BAE9-A9392E22724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984F1D86-5C48-43FE-AF25-8A2886D1BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="291">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -917,18 +917,6 @@
     <t>var.ahv_651_network["521-REC_ESIGN_INT"]</t>
   </si>
   <si>
-    <t>VSL-PRO-SQU-001</t>
-  </si>
-  <si>
-    <t>vsl-pro-squ-001</t>
-  </si>
-  <si>
-    <t>172.22.108.50</t>
-  </si>
-  <si>
-    <t>172.22.108.1</t>
-  </si>
-  <si>
     <t>PRO_AUTH_EXT</t>
   </si>
   <si>
@@ -941,27 +929,6 @@
     <t>REC_AUTH_INT</t>
   </si>
   <si>
-    <t>VSL-PRO-KCE-001</t>
-  </si>
-  <si>
-    <t>vsl-pro-kce-001</t>
-  </si>
-  <si>
-    <t>172.23.73.1</t>
-  </si>
-  <si>
-    <t>172.23.73.254</t>
-  </si>
-  <si>
-    <t>VSL-PRO-KCE-002</t>
-  </si>
-  <si>
-    <t>vsl-pro-kce-002</t>
-  </si>
-  <si>
-    <t>172.23.73.2</t>
-  </si>
-  <si>
     <t>VSL-PRO-KCI-001</t>
   </si>
   <si>
@@ -981,39 +948,6 @@
   </si>
   <si>
     <t>172.23.42.254</t>
-  </si>
-  <si>
-    <t>VSL-REC-KCE-001</t>
-  </si>
-  <si>
-    <t>VSL-REC-KCE-002</t>
-  </si>
-  <si>
-    <t>VSL-REC-KCI-001</t>
-  </si>
-  <si>
-    <t>vsl-rec-kce-001</t>
-  </si>
-  <si>
-    <t>vsl-rec-kce-002</t>
-  </si>
-  <si>
-    <t>vsl-rec-kci-001</t>
-  </si>
-  <si>
-    <t>172.25.73.1</t>
-  </si>
-  <si>
-    <t>172.25.73.2</t>
-  </si>
-  <si>
-    <t>172.25.42.1</t>
-  </si>
-  <si>
-    <t>172.25.42.254</t>
-  </si>
-  <si>
-    <t>172.25.73.254</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,44 +1497,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>281</v>
+      <c r="B2" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f t="shared" ref="I2:I15" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-07</v>
+        <f t="shared" ref="I2:I9" si="0">"sub_"&amp;G2</f>
+        <v>sub_nut-dmz-03</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K15" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-07</v>
+        <f t="shared" ref="K2:K9" si="1">"stg_"&amp;G2</f>
+        <v>stg_nut-dmz-03</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8">
@@ -1616,16 +1550,16 @@
         <v>100</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
@@ -1633,39 +1567,39 @@
         <v>266</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-03</v>
+        <v>sub_nut-dmz-04</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-03</v>
+        <v>stg_nut-dmz-04</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8">
@@ -1681,542 +1615,152 @@
         <v>100</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S3" s="6">
         <v>24</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>41</v>
-      </c>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>284</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>100</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="S4" s="6">
-        <v>24</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="N4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-03</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>285</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-03</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>100</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="S5" s="6">
-        <v>24</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="N5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>285</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>100</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="S6" s="6">
-        <v>24</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="N6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-03</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>286</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-03</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>100</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="S7" s="6">
-        <v>24</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="N7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>286</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J8" s="9"/>
       <c r="K8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>100</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="S8" s="6">
-        <v>24</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="N8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-03</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>287</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-03</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8">
-        <v>2048</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>100</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="S9" s="6">
-        <v>24</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="N9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="U11" s="8"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="U13" s="8"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="U15" s="8"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G16)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G10)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H15 L2:L15" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L9 G2:H9" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J15" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J9" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2229,13 +1773,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A14</xm:sqref>
+          <xm:sqref>A2:A8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U15</xm:sqref>
+          <xm:sqref>U2:U9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6240,7 +5784,7 @@
     </row>
     <row r="189" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B189" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>277</v>
@@ -6266,7 +5810,7 @@
     </row>
     <row r="190" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B190" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>278</v>
@@ -6292,100 +5836,100 @@
     </row>
     <row r="191" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B191" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C193" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="194" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C194" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984F1D86-5C48-43FE-AF25-8A2886D1BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FDFE05-A109-4D89-A8FF-502FE8249626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-32370" yWindow="2655" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -929,25 +929,25 @@
     <t>REC_AUTH_INT</t>
   </si>
   <si>
-    <t>VSL-PRO-KCI-001</t>
-  </si>
-  <si>
-    <t>VSL-PRO-KCI-002</t>
-  </si>
-  <si>
-    <t>vsl-pro-kci-001</t>
-  </si>
-  <si>
-    <t>vsl-pro-kci-002</t>
-  </si>
-  <si>
-    <t>172.23.42.1</t>
-  </si>
-  <si>
-    <t>172.23.42.2</t>
-  </si>
-  <si>
-    <t>172.23.42.254</t>
+    <t>vsl-dev-iis-001</t>
+  </si>
+  <si>
+    <t>vsl-dev-idb-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-IIS-001</t>
+  </si>
+  <si>
+    <t>VSL-DEV-IDB-001</t>
+  </si>
+  <si>
+    <t>172.17.20.148</t>
+  </si>
+  <si>
+    <t>172.17.20.149</t>
+  </si>
+  <si>
+    <t>172.17.20.1</t>
   </si>
 </sst>
 </file>
@@ -1081,11 +1081,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,49 +1499,49 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2:I9" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-03</v>
+        <v>sub_pe_lu651</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="K2" s="9" t="str">
         <f t="shared" ref="K2:K9" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-03</v>
+        <v>stg_pe_lu651</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8">
-        <v>2048</v>
+        <v>16384</v>
       </c>
       <c r="O2" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" s="6">
         <v>1</v>
@@ -1559,54 +1559,54 @@
         <v>290</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-04</v>
+        <v>sub_pe_lu651</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-04</v>
+        <v>stg_pe_lu651</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="O3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="6">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>290</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1812,20 +1812,20 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -2005,12 +2005,12 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2167,20 +2167,20 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2625,16 +2625,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -5783,7 +5783,7 @@
       </c>
     </row>
     <row r="189" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="12" t="s">
         <v>280</v>
       </c>
       <c r="C189" s="11" t="s">
@@ -5838,25 +5838,25 @@
       <c r="B191" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="C191" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D191" s="13" t="s">
+      <c r="D191" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E191" s="13" t="s">
+      <c r="E191" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F191" s="13" t="s">
+      <c r="F191" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="G191" s="13" t="s">
+      <c r="G191" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="H191" s="13" t="s">
+      <c r="H191" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="I191" s="13" t="s">
+      <c r="I191" s="12" t="s">
         <v>280</v>
       </c>
     </row>

--- a/vmdefs.xlsx
+++ b/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\infra\linux\prov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FDFE05-A109-4D89-A8FF-502FE8249626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE6C84D-7C0A-48F9-989A-A4F8BBAC2936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32370" yWindow="2655" windowWidth="28800" windowHeight="15435" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <definedName name="sub_nut_dmz_06">params!$G$69:$G$194</definedName>
     <definedName name="sub_nut_dmz_07">params!$H$69:$H$194</definedName>
     <definedName name="sub_nut_dmz_08">params!$I$69:$I$194</definedName>
-    <definedName name="sub_pe_lu650">params!$B$25:$B$41</definedName>
+    <definedName name="sub_pe_lu650">params!$B$25:$B$44</definedName>
     <definedName name="sub_pe_lu651">params!$D$25:$D$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="299">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -929,25 +929,49 @@
     <t>REC_AUTH_INT</t>
   </si>
   <si>
-    <t>vsl-dev-iis-001</t>
-  </si>
-  <si>
-    <t>vsl-dev-idb-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-IIS-001</t>
-  </si>
-  <si>
-    <t>VSL-DEV-IDB-001</t>
-  </si>
-  <si>
-    <t>172.17.20.148</t>
-  </si>
-  <si>
-    <t>172.17.20.149</t>
-  </si>
-  <si>
-    <t>172.17.20.1</t>
+    <t>var.ahv_650_network["PRO_AIA_324"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["REC_AIA_524"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["REC_IA_547"]</t>
+  </si>
+  <si>
+    <t>vsl-pro-aia-001</t>
+  </si>
+  <si>
+    <t>VSL-PRO-AIA-001</t>
+  </si>
+  <si>
+    <t>VSL-REC-AIA-001</t>
+  </si>
+  <si>
+    <t>vsl-rec-aia-001</t>
+  </si>
+  <si>
+    <t>VSL-REC-IAI-001</t>
+  </si>
+  <si>
+    <t>vsl-rec-iai-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.23.24.1 </t>
+  </si>
+  <si>
+    <t>172.25.24.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.25.47.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.23.24.253 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.25.24.253 </t>
+  </si>
+  <si>
+    <t>172.25.47.253</t>
   </si>
 </sst>
 </file>
@@ -1403,16 +1427,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="6" customWidth="1"/>
@@ -1501,47 +1523,47 @@
       <c r="A2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>286</v>
+      <c r="B2" t="s">
+        <v>288</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="E2" t="s">
+        <v>287</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2:I9" si="0">"sub_"&amp;G2</f>
-        <v>sub_pe_lu651</v>
+        <v>sub_pe_lu650</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="K2" s="9" t="str">
         <f t="shared" ref="K2:K9" si="1">"stg_"&amp;G2</f>
-        <v>stg_pe_lu651</v>
+        <v>stg_pe_lu650</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="O2" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P2" s="6">
         <v>1</v>
@@ -1549,14 +1571,14 @@
       <c r="Q2" s="8">
         <v>100</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>288</v>
+      <c r="R2" t="s">
+        <v>293</v>
       </c>
       <c r="S2" s="6">
         <v>24</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>290</v>
+      <c r="T2" t="s">
+        <v>296</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>17</v>
@@ -1567,46 +1589,46 @@
         <v>265</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_pe_lu651</v>
+        <v>sub_pe_lu650</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_pe_lu651</v>
+        <v>stg_pe_lu650</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8">
-        <v>8192</v>
+        <v>24576</v>
       </c>
       <c r="O3" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P3" s="6">
         <v>1</v>
@@ -1614,37 +1636,83 @@
       <c r="Q3" s="8">
         <v>100</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>289</v>
+      <c r="R3" t="s">
+        <v>294</v>
       </c>
       <c r="S3" s="6">
         <v>24</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>290</v>
+      <c r="T3" t="s">
+        <v>297</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="9"/>
+        <v>sub_pe_lu650</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="8"/>
+        <v>stg_pe_lu650</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="N4" s="8">
+        <v>65535</v>
+      </c>
+      <c r="O4" s="6">
+        <v>24</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
+        <v>295</v>
+      </c>
+      <c r="S4" s="6">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>298</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1792,8 +1860,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O194"/>
   <sheetViews>
-    <sheetView topLeftCell="C153" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,13 +2225,24 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>284</v>
+      </c>
       <c r="D42" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>285</v>
+      </c>
       <c r="D43" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
